--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04512C27-E2F4-4F42-B6AF-ABA8F743BE43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEAE505-22D6-472E-BF9F-888BA10202C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;オレンジのせ&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Non</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -73,10 +69,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ぶどうのせ&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Blueberry</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -94,10 +86,6 @@
   </si>
   <si>
     <t>ストロベリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;いちごのせ&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -124,7 +112,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ししゃものせ&gt;</t>
+    <t>&lt;オレンジ混ぜ&gt;</t>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ぶどう混ぜ&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;いちご混ぜ&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;混ぜ込みししゃも&gt;</t>
+    <rPh sb="1" eb="2">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクブラッドオレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PinkBloodOrange</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -508,17 +531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -537,100 +560,115 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEAE505-22D6-472E-BF9F-888BA10202C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA286F7C-6ECF-4C03-930D-629AC46ECA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="2235" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2910" yWindow="2580" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -133,21 +133,57 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;混ぜ込みししゃも&gt;</t>
+    <t>ピンクブラッドオレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PinkBloodOrange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Butter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kogashi_Butter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バター風味</t>
+    <rPh sb="3" eb="5">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焦がしバター</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;香り豊かな&gt;</t>
     <rPh sb="1" eb="2">
-      <t>マ</t>
+      <t>カオ</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>ユタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;焦がしバターの&gt;</t>
+    <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピンクブラッドオレンジ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PinkBloodOrange</t>
+    <t>&lt;活きのよいししゃも&gt;</t>
+    <rPh sb="1" eb="2">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -531,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -560,7 +596,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A9" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -588,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -669,7 +705,37 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA286F7C-6ECF-4C03-930D-629AC46ECA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427430D8-5325-4701-B2E9-B2ADFD3A5066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="2580" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1455" yWindow="2625" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ブルーベリー&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Strawberry</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -97,39 +93,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ナッツ入り&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Shishamo</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ししゃも</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;オレンジ混ぜ&gt;</t>
-    <rPh sb="5" eb="6">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ぶどう混ぜ&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>マ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;いちご混ぜ&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>マ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -163,26 +131,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;香り豊かな&gt;</t>
-    <rPh sb="1" eb="2">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ユタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;焦がしバターの&gt;</t>
-    <rPh sb="1" eb="2">
+    <t>バター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焦がしバターの</t>
+    <rPh sb="0" eb="1">
       <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;活きのよいししゃも&gt;</t>
-    <rPh sb="1" eb="2">
-      <t>イ</t>
+    <t>いちご</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンク色のオレンジ</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -570,7 +536,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -615,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -624,13 +590,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -645,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -660,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -669,13 +635,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -684,13 +650,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -699,13 +665,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -714,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -729,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427430D8-5325-4701-B2E9-B2ADFD3A5066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC4AEA-CF7F-4F7A-9D2E-6EA70C75B70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="2625" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -109,18 +109,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Butter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Kogashi_Butter</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バター風味</t>
-    <rPh sb="3" eb="5">
-      <t>フウミ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -131,10 +120,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バター</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>焦がしバターの</t>
     <rPh sb="0" eb="1">
       <t>コ</t>
@@ -149,6 +134,55 @@
     <t>ピンク色のオレンジ</t>
     <rPh sb="3" eb="4">
       <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Honey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Maple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はちみつ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メープル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PinkSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EmeraldSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクシュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルドシュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクに煌めく</t>
+    <rPh sb="4" eb="5">
+      <t>キラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>深緑色の甘い</t>
+    <rPh sb="0" eb="3">
+      <t>シンリョクショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -533,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -562,7 +596,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A11" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -596,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -641,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -683,10 +717,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -695,13 +729,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DC4AEA-CF7F-4F7A-9D2E-6EA70C75B70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE01F8-3FBB-4840-A865-6A72475B01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -116,24 +116,6 @@
     <t>焦がしバター</t>
     <rPh sb="0" eb="1">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>焦がしバターの</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>いちご</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ピンク色のオレンジ</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -183,6 +165,34 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンク色の</t>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焦がしバター香る</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ししゃものせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナッツ入り</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -570,7 +580,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -630,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -675,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -690,7 +700,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -705,7 +715,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -720,7 +730,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -729,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -744,13 +754,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -759,13 +769,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -774,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CE01F8-3FBB-4840-A865-6A72475B01D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5072F307-017D-4FA9-8F73-36042E9C9EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -183,10 +183,6 @@
     <rPh sb="6" eb="7">
       <t>カオル</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ししゃものせ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -580,7 +576,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -700,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -715,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5072F307-017D-4FA9-8F73-36042E9C9EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F6440-A191-4034-A40F-CD552CD54404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -189,6 +189,108 @@
     <t>ナッツ入り</t>
     <rPh sb="3" eb="4">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>slot_girlscore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>slot_money</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jam</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャム風味</t>
+    <rPh sb="3" eb="5">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャムバレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MiracleTapioka</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラクルタピオカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奇跡のタピオカ</t>
+    <rPh sb="0" eb="2">
+      <t>キセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CrystalSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスタルシュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Zarame</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ざらめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリカリざらめ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CocoaPowder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココア風味</t>
+    <rPh sb="3" eb="5">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MachaPowder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抹茶</t>
+    <rPh sb="0" eb="2">
+      <t>マッチャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抹茶な味わい</t>
+    <rPh sb="0" eb="2">
+      <t>マッチャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -573,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -584,9 +686,11 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,17 +703,35 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A14" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A20" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -623,8 +745,14 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -638,8 +766,14 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -653,8 +787,14 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -668,8 +808,14 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -683,8 +829,14 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -698,8 +850,14 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -713,8 +871,14 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>-30</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -728,8 +892,14 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -743,8 +913,14 @@
       <c r="D11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -758,8 +934,14 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -773,8 +955,14 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -787,6 +975,138 @@
       </c>
       <c r="D14" t="s">
         <v>30</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77F6440-A191-4034-A40F-CD552CD54404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5496131D-D444-482E-BD9F-55215647DA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3405" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3735" yWindow="3285" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -292,6 +292,77 @@
     <rPh sb="3" eb="4">
       <t>アジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RowCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StarPowder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生クリームのせ</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホイップのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生クリーム</t>
+    <rPh sb="0" eb="1">
+      <t>ナマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホイップクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしの粉</t>
+    <rPh sb="3" eb="4">
+      <t>コナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星のきらめき</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pear</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <rPh sb="0" eb="1">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>梨</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -675,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -712,7 +783,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A20" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A25" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -842,19 +913,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -863,19 +934,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="E9">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -884,16 +955,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -905,19 +976,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>-30</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -926,19 +997,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -947,19 +1018,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -968,19 +1039,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -989,19 +1060,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1010,19 +1081,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>777</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1031,19 +1102,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1052,19 +1123,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>777</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1073,19 +1144,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1094,18 +1165,123 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="F20">
+      <c r="F22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
         <v>120</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5496131D-D444-482E-BD9F-55215647DA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CB1F0-13FA-4386-8C13-AC61A9B70EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3285" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -363,6 +363,26 @@
   </si>
   <si>
     <t>梨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CornFrake</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーンフレーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーントッピング</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -746,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -783,7 +803,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A25" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A27" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1283,6 +1303,48 @@
       </c>
       <c r="F25">
         <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CB1F0-13FA-4386-8C13-AC61A9B70EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72BD1A-8C04-4EDC-8191-814F69494DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2565" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2145" yWindow="2310" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F72BD1A-8C04-4EDC-8191-814F69494DE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C4A05-FCF4-491F-B8B3-11C8643ED9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="2310" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -186,13 +186,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ナッツ入り</t>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>slot_girlscore</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -362,10 +355,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>梨</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IceCream</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -383,6 +372,67 @@
   </si>
   <si>
     <t>コーントッピング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリートッピング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナッツトッピング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ししゃものせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はちみつをかけた</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メープルがけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Chocolate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコがけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジ添え</t>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどう添え</t>
+    <rPh sb="3" eb="4">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーベリートッピング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>梨を添えた</t>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -766,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -795,25 +845,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A27" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -834,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -876,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -897,7 +947,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -918,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -933,13 +983,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -954,13 +1004,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -981,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1002,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E11">
         <v>-30</v>
@@ -1044,7 +1094,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1065,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1122,13 +1172,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1143,13 +1193,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1164,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -1185,13 +1235,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1206,13 +1256,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1227,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
       </c>
       <c r="E22">
         <v>7</v>
@@ -1248,13 +1298,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -1269,13 +1319,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1290,13 +1340,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -1311,13 +1361,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>30</v>
@@ -1332,19 +1382,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27">
         <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7C4A05-FCF4-491F-B8B3-11C8643ED9CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA68946-4E64-4CE7-888D-1534C61140B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -819,7 +819,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA68946-4E64-4CE7-888D-1534C61140B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF6E468-A670-4868-85AB-77296BE7DF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4545" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -432,6 +434,24 @@
     <t>梨を添えた</t>
     <rPh sb="2" eb="3">
       <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SakuraChip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらの花びら</t>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほのかなさくらの香り</t>
+    <rPh sb="8" eb="9">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -816,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -853,7 +873,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A28" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A29" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1415,6 +1435,27 @@
         <v>10</v>
       </c>
       <c r="F28">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF6E468-A670-4868-85AB-77296BE7DF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E375973-068D-4B9C-B99C-3624DCC576BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="2490" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3375" yWindow="2190" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Jam</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジャム風味</t>
     <rPh sb="3" eb="5">
       <t>フウミ</t>
@@ -238,10 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>キラキラの</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Zarame</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -250,22 +242,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カリカリざらめ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CocoaPowder</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ココア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ココア風味</t>
-    <rPh sb="3" eb="5">
-      <t>フウミ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -280,16 +261,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>抹茶な味わい</t>
-    <rPh sb="0" eb="2">
-      <t>マッチャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RowCream</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -299,17 +270,6 @@
   </si>
   <si>
     <t>StarPowder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生クリームのせ</t>
-    <rPh sb="0" eb="1">
-      <t>ナマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホイップのせ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -331,13 +291,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>星のきらめき</t>
-    <rPh sb="0" eb="1">
-      <t>ホシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Banana</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -373,18 +326,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コーントッピング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ストロベリートッピング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バナナのせ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ナッツトッピング</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -393,48 +334,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>はちみつをかけた</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メープルがけ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Chocolate</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>チョコレート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チョコがけ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジ添え</t>
-    <rPh sb="4" eb="5">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ぶどう添え</t>
-    <rPh sb="3" eb="4">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブルーベリートッピング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>梨を添えた</t>
-    <rPh sb="2" eb="3">
-      <t>ソ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -449,10 +353,113 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ほのかなさくらの香り</t>
-    <rPh sb="8" eb="9">
-      <t>カオ</t>
+    <t>梨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハニー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスタル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星の</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレーク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくら</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SilverChip</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルバーチップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シルバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KirakiraHeart</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JewerySuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュエリーシュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宝石キラキラ</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MixColor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスカラースプレー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MixChoco</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスチョコスプレー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコつぶ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JamBullet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ColorfulSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラフルシュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラフルつぶ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -836,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -873,7 +880,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A29" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A35" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -904,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -946,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -967,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -988,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -1003,13 +1010,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -1024,13 +1031,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1051,7 +1058,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1072,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>-30</v>
@@ -1114,7 +1121,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1135,7 +1142,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1192,13 +1199,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1213,13 +1220,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -1234,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -1255,19 +1262,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1276,19 +1283,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1297,19 +1304,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1318,16 +1325,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>120</v>
@@ -1339,13 +1346,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1360,16 +1367,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>120</v>
@@ -1381,19 +1388,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1402,19 +1409,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1423,19 +1430,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1444,18 +1451,144 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E375973-068D-4B9C-B99C-3624DCC576BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C064F8B-6951-4866-90BD-DBBC08371855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2190" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1166,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>200</v>
@@ -1187,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>500</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C064F8B-6951-4866-90BD-DBBC08371855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CE117-046D-455D-82DE-6D03F9C4A879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3810" yWindow="2325" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -460,6 +460,50 @@
   </si>
   <si>
     <t>カラフルつぶ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Peach</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cheese</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pineapple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パイナップル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cherry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらんぼ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨーグルト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Yoguruto</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -843,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -880,7 +924,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A35" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1052,19 +1096,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -1073,19 +1117,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -1094,19 +1138,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -1115,19 +1159,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -1136,19 +1180,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <v>8</v>
       </c>
       <c r="F14">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1157,16 +1201,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="F15">
         <v>200</v>
@@ -1178,19 +1222,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1199,19 +1243,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -1220,19 +1264,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>777</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -1241,19 +1285,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -1262,19 +1306,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -1283,19 +1327,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>5</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1304,19 +1348,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1325,19 +1369,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -1346,19 +1390,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -1367,19 +1411,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -1388,19 +1432,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1409,19 +1453,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F27">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -1430,19 +1474,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -1451,19 +1495,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -1472,19 +1516,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -1493,19 +1537,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1514,19 +1558,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -1535,19 +1579,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1556,16 +1600,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>150</v>
@@ -1577,18 +1621,123 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C40" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D40" t="s">
         <v>90</v>
       </c>
-      <c r="E35">
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="F35">
+      <c r="F40">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303CE117-046D-455D-82DE-6D03F9C4A879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF20A4F-6ABB-463D-8010-FA421F9DC9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2325" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -380,10 +380,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チョコ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さくら</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -420,13 +416,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>宝石キラキラ</t>
-    <rPh sb="0" eb="2">
-      <t>ホウセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MixColor</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -443,10 +432,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チョコつぶ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JamBullet</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -459,10 +444,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カラフルつぶ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Peach</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -504,6 +485,18 @@
   </si>
   <si>
     <t>Yoguruto</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスカラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスチョコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -889,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1096,13 +1089,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1117,13 +1110,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1138,13 +1131,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1180,13 +1173,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1327,7 +1320,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1390,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -1516,13 +1509,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -1606,7 +1599,7 @@
         <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E34">
         <v>10</v>
@@ -1627,7 +1620,7 @@
         <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -1642,13 +1635,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>78</v>
-      </c>
-      <c r="D36" t="s">
-        <v>79</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -1663,13 +1656,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" t="s">
-        <v>82</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1684,13 +1677,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
         <v>83</v>
       </c>
-      <c r="C38" t="s">
-        <v>84</v>
-      </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E38">
         <v>13</v>
@@ -1705,13 +1698,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E39">
         <v>6</v>
@@ -1726,13 +1719,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E40">
         <v>6</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF20A4F-6ABB-463D-8010-FA421F9DC9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8285E5-B34E-4A19-8A58-325B58C90B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="2745" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>キラキラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>slot_totalscore</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -880,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -891,11 +895,12 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -909,13 +914,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
         <v>0</v>
@@ -935,8 +943,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -954,10 +965,13 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -972,13 +986,16 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -993,13 +1010,16 @@
         <v>8</v>
       </c>
       <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1014,13 +1034,16 @@
         <v>10</v>
       </c>
       <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1035,13 +1058,16 @@
         <v>12</v>
       </c>
       <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1056,13 +1082,16 @@
         <v>56</v>
       </c>
       <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1077,13 +1106,16 @@
         <v>69</v>
       </c>
       <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1098,13 +1130,16 @@
         <v>92</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1119,13 +1154,16 @@
         <v>96</v>
       </c>
       <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1140,13 +1178,16 @@
         <v>99</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1161,13 +1202,16 @@
         <v>63</v>
       </c>
       <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1182,13 +1226,16 @@
         <v>93</v>
       </c>
       <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1206,10 +1253,13 @@
         <v>-30</v>
       </c>
       <c r="F15">
+        <v>-10</v>
+      </c>
+      <c r="G15">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1224,13 +1274,16 @@
         <v>32</v>
       </c>
       <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1245,13 +1298,16 @@
         <v>70</v>
       </c>
       <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1266,13 +1322,16 @@
         <v>24</v>
       </c>
       <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1287,13 +1346,16 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1308,13 +1370,16 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1332,10 +1397,13 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1350,13 +1418,16 @@
         <v>40</v>
       </c>
       <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
         <v>30</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>777</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1371,13 +1442,16 @@
         <v>71</v>
       </c>
       <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
         <v>15</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1395,10 +1469,13 @@
         <v>10</v>
       </c>
       <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1416,10 +1493,13 @@
         <v>5</v>
       </c>
       <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1434,13 +1514,16 @@
         <v>46</v>
       </c>
       <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1455,13 +1538,16 @@
         <v>48</v>
       </c>
       <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1476,13 +1562,16 @@
         <v>52</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1497,13 +1586,16 @@
         <v>72</v>
       </c>
       <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <v>12</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1518,13 +1610,16 @@
         <v>100</v>
       </c>
       <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
         <v>4</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1539,13 +1634,16 @@
         <v>73</v>
       </c>
       <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
         <v>20</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1560,13 +1658,16 @@
         <v>60</v>
       </c>
       <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
         <v>30</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>240</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1584,10 +1685,13 @@
         <v>5</v>
       </c>
       <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1602,13 +1706,16 @@
         <v>66</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1626,10 +1733,13 @@
         <v>10</v>
       </c>
       <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1644,13 +1754,16 @@
         <v>78</v>
       </c>
       <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
         <v>5</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1665,13 +1778,16 @@
         <v>81</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1686,13 +1802,16 @@
         <v>104</v>
       </c>
       <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
         <v>13</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1707,13 +1826,16 @@
         <v>102</v>
       </c>
       <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
         <v>6</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1728,9 +1850,12 @@
         <v>103</v>
       </c>
       <c r="E40">
+        <v>12</v>
+      </c>
+      <c r="F40">
         <v>6</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8285E5-B34E-4A19-8A58-325B58C90B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B79BF8-A782-4EE1-AF56-4C76D896999F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1256,7 +1256,7 @@
         <v>-10</v>
       </c>
       <c r="G15">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B79BF8-A782-4EE1-AF56-4C76D896999F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F57831-2586-4982-ACBE-865DACAFE3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="23475" windowHeight="12060" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23505" windowHeight="12075" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F57831-2586-4982-ACBE-865DACAFE3C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CBB0E1-C8F7-4AFF-A5B6-5F76CC788006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="23505" windowHeight="12075" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="23505" windowHeight="12075" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CBB0E1-C8F7-4AFF-A5B6-5F76CC788006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC1D01-39E3-4E64-BBBC-09E9BC65A91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="23505" windowHeight="12075" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ホイップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>星の</t>
     <rPh sb="0" eb="1">
       <t>ホシ</t>
@@ -501,6 +497,91 @@
   </si>
   <si>
     <t>slot_totalscore</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamOrange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホイップ添え</t>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジホイップ添え</t>
+    <rPh sb="8" eb="9">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamGrape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>芳醇なぶどうホイップ添え</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamBlueberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーベリーホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーベリーホイップ添え</t>
+    <rPh sb="10" eb="11">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamStrawberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリーホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごピンクのホイップ添え</t>
+    <rPh sb="11" eb="12">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamBanana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナホイップ添え</t>
+    <rPh sb="7" eb="8">
+      <t>ソ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -884,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -914,7 +995,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>33</v>
@@ -925,7 +1006,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A40" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A45" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1121,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1145,13 +1226,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -1169,13 +1250,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
         <v>97</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -1217,13 +1298,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1385,7 +1466,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
@@ -1457,13 +1538,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
         <v>89</v>
       </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -1583,7 +1664,7 @@
         <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -1601,22 +1682,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -1625,19 +1706,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31">
         <v>120</v>
@@ -1649,22 +1730,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G32">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1673,22 +1754,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1697,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -1721,22 +1802,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -1745,22 +1826,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -1769,22 +1850,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1793,22 +1874,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1817,19 +1898,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>150</v>
@@ -1841,21 +1922,141 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
         <v>86</v>
       </c>
-      <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40">
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45">
         <v>12</v>
       </c>
-      <c r="F40">
+      <c r="F45">
         <v>6</v>
       </c>
-      <c r="G40">
+      <c r="G45">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC1D01-39E3-4E64-BBBC-09E9BC65A91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7646FD-95C5-459E-B158-E4AC1AB462D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2175" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3510" yWindow="3315" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7646FD-95C5-459E-B158-E4AC1AB462D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E65C7-30F3-4693-BFBE-13011217A42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3315" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -530,16 +530,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>芳醇なぶどうホイップ添え</t>
-    <rPh sb="0" eb="2">
-      <t>ホウジュン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WhipeedCreamBlueberry</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -563,23 +553,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>いちごピンクのホイップ添え</t>
-    <rPh sb="11" eb="12">
+    <t>WhipeedCreamBanana</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナホイップ添え</t>
+    <rPh sb="7" eb="8">
       <t>ソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>WhipeedCreamBanana</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バナナホイップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バナナホイップ添え</t>
+    <t>WhipeedCreamPeach</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピーチホイップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピーチホイップ添え</t>
     <rPh sb="7" eb="8">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうホイップ添え</t>
+    <rPh sb="7" eb="8">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごピンクホイップ添え</t>
+    <rPh sb="10" eb="11">
       <t>ソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -965,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1006,7 +1018,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A45" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A46" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1712,7 +1724,7 @@
         <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <v>18</v>
@@ -1730,13 +1742,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
       </c>
       <c r="E32">
         <v>18</v>
@@ -1754,13 +1766,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="C33" t="s">
-        <v>116</v>
-      </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E33">
         <v>22</v>
@@ -1778,13 +1790,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" t="s">
-        <v>120</v>
       </c>
       <c r="E34">
         <v>18</v>
@@ -1802,22 +1814,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="E35">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -1826,22 +1838,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G36">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -1850,22 +1862,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
         <v>20</v>
       </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
       <c r="G37">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1874,22 +1886,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1898,22 +1910,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -1922,16 +1934,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -1946,19 +1958,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <v>150</v>
@@ -1970,19 +1982,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E42">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>150</v>
@@ -1994,19 +2006,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E43">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>150</v>
@@ -2018,19 +2030,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G44">
         <v>150</v>
@@ -2042,21 +2054,45 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E65C7-30F3-4693-BFBE-13011217A42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B179B2E-688A-4666-B791-8CB2A6705534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24090" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1170" yWindow="2505" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -593,6 +593,21 @@
     <t>いちごピンクホイップ添え</t>
     <rPh sb="10" eb="11">
       <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lavender</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダーの香り</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -977,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1018,7 +1033,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A46" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A47" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2093,6 +2108,30 @@
         <v>6</v>
       </c>
       <c r="G46">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B179B2E-688A-4666-B791-8CB2A6705534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65EC02-736A-4819-B32F-B10D4B286C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2505" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3510" yWindow="3315" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>slot_girlscore</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>slot_money</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -609,6 +605,10 @@
     <rPh sb="6" eb="7">
       <t>カオ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>slot_getgirllove</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1022,13 +1022,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1040,10 +1040,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1205,13 +1205,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1229,13 +1229,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1253,13 +1253,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11">
         <v>12</v>
@@ -1277,13 +1277,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
         <v>96</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>98</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -1307,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1325,13 +1325,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1355,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>-30</v>
@@ -1382,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1403,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1493,13 +1493,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1517,13 +1517,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -1541,13 +1541,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23">
         <v>20</v>
@@ -1565,13 +1565,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24">
         <v>10</v>
@@ -1589,13 +1589,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>44</v>
-      </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -1613,13 +1613,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>5</v>
@@ -1637,13 +1637,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -1661,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <v>120</v>
@@ -1709,19 +1709,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
-        <v>106</v>
-      </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30">
         <v>15</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>120</v>
@@ -1733,19 +1733,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
         <v>109</v>
       </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31">
         <v>18</v>
       </c>
       <c r="F31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <v>120</v>
@@ -1757,19 +1757,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
         <v>111</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" t="s">
-        <v>113</v>
       </c>
       <c r="E32">
         <v>18</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>120</v>
@@ -1781,19 +1781,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
         <v>114</v>
       </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>22</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>120</v>
@@ -1805,19 +1805,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>117</v>
-      </c>
-      <c r="D34" t="s">
-        <v>118</v>
       </c>
       <c r="E34">
         <v>18</v>
       </c>
       <c r="F34">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>120</v>
@@ -1829,19 +1829,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>120</v>
-      </c>
-      <c r="D35" t="s">
-        <v>121</v>
       </c>
       <c r="E35">
         <v>18</v>
       </c>
       <c r="F35">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>120</v>
@@ -1853,13 +1853,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <v>12</v>
@@ -1877,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>15</v>
@@ -1901,13 +1901,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>20</v>
@@ -1925,13 +1925,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" t="s">
-        <v>62</v>
-      </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -1949,13 +1949,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -1973,13 +1973,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
         <v>67</v>
       </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -1997,13 +1997,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
         <v>75</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
       </c>
       <c r="E42">
         <v>7</v>
@@ -2021,13 +2021,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>79</v>
-      </c>
-      <c r="D43" t="s">
-        <v>80</v>
       </c>
       <c r="E43">
         <v>12</v>
@@ -2045,13 +2045,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
-        <v>82</v>
-      </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>15</v>
@@ -2069,13 +2069,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
-        <v>84</v>
-      </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -2093,13 +2093,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -2117,13 +2117,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
         <v>124</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>125</v>
-      </c>
-      <c r="D47" t="s">
-        <v>126</v>
       </c>
       <c r="E47">
         <v>10</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A65EC02-736A-4819-B32F-B10D4B286C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7BDCC0-3472-4D21-91E7-012FFDC11336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3315" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1214,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1262,7 +1262,7 @@
         <v>94</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -1286,7 +1286,7 @@
         <v>97</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1310,7 +1310,7 @@
         <v>62</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1334,7 +1334,7 @@
         <v>91</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -1382,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1454,7 +1454,7 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -1502,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1526,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1550,7 +1550,7 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -1574,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -1598,7 +1598,7 @@
         <v>43</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>47</v>
       </c>
       <c r="E27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1694,7 +1694,7 @@
         <v>106</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1718,7 +1718,7 @@
         <v>107</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1742,7 +1742,7 @@
         <v>121</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1766,7 +1766,7 @@
         <v>112</v>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>122</v>
       </c>
       <c r="E33">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -1814,7 +1814,7 @@
         <v>117</v>
       </c>
       <c r="E34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1838,7 +1838,7 @@
         <v>120</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -1862,7 +1862,7 @@
         <v>98</v>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1886,7 +1886,7 @@
         <v>71</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1910,7 +1910,7 @@
         <v>59</v>
       </c>
       <c r="E38">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -1934,7 +1934,7 @@
         <v>72</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -1958,7 +1958,7 @@
         <v>65</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -1982,7 +1982,7 @@
         <v>73</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2006,7 +2006,7 @@
         <v>76</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2030,7 +2030,7 @@
         <v>79</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -2054,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>13</v>
@@ -2078,7 +2078,7 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>101</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2126,7 +2126,7 @@
         <v>125</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>10</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7BDCC0-3472-4D21-91E7-012FFDC11336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC313E5-1E65-4B0B-A8DE-FE1BB013FD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1094,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1214,7 +1214,7 @@
         <v>68</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1262,7 +1262,7 @@
         <v>94</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -1286,7 +1286,7 @@
         <v>97</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1310,7 +1310,7 @@
         <v>62</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -1334,7 +1334,7 @@
         <v>91</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -1382,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1454,7 +1454,7 @@
         <v>29</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1478,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -1502,7 +1502,7 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>5</v>
@@ -1526,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1550,7 +1550,7 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -1574,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -1598,7 +1598,7 @@
         <v>43</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1622,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>47</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1670,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>106</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1718,7 +1718,7 @@
         <v>107</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1742,7 +1742,7 @@
         <v>121</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1766,7 +1766,7 @@
         <v>112</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>122</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -1814,7 +1814,7 @@
         <v>117</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1838,7 +1838,7 @@
         <v>120</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -1862,7 +1862,7 @@
         <v>98</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1886,7 +1886,7 @@
         <v>71</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1910,7 +1910,7 @@
         <v>59</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -1934,7 +1934,7 @@
         <v>72</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -1958,7 +1958,7 @@
         <v>65</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -1982,7 +1982,7 @@
         <v>73</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2006,7 +2006,7 @@
         <v>76</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2030,7 +2030,7 @@
         <v>79</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -2054,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>13</v>
@@ -2078,7 +2078,7 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>101</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2126,7 +2126,7 @@
         <v>125</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>10</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC313E5-1E65-4B0B-A8DE-FE1BB013FD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3991E-4546-4701-B34D-64883FD00D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,13 +586,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>いちごピンクホイップ添え</t>
-    <rPh sb="10" eb="11">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Lavender</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -609,6 +602,13 @@
   </si>
   <si>
     <t>slot_getgirllove</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリーホイップ添え</t>
+    <rPh sb="10" eb="11">
+      <t>ソ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1025,7 +1025,7 @@
         <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>33</v>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1166,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1262,7 +1262,7 @@
         <v>94</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -1286,7 +1286,7 @@
         <v>97</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1382,7 +1382,7 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1478,7 +1478,7 @@
         <v>30</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -1526,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1550,7 +1550,7 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -1574,7 +1574,7 @@
         <v>88</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -1622,7 +1622,7 @@
         <v>45</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>47</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1670,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>106</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1766,7 +1766,7 @@
         <v>112</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -1787,10 +1787,10 @@
         <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -1862,7 +1862,7 @@
         <v>98</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>4</v>
@@ -1886,7 +1886,7 @@
         <v>71</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1910,7 +1910,7 @@
         <v>59</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>30</v>
@@ -1958,7 +1958,7 @@
         <v>65</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -1982,7 +1982,7 @@
         <v>73</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -2006,7 +2006,7 @@
         <v>76</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2030,7 +2030,7 @@
         <v>79</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -2054,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>13</v>
@@ -2078,7 +2078,7 @@
         <v>100</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -2102,7 +2102,7 @@
         <v>101</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2117,16 +2117,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" t="s">
         <v>123</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>124</v>
       </c>
-      <c r="D47" t="s">
-        <v>125</v>
-      </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>10</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3991E-4546-4701-B34D-64883FD00D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86913FD-6FC2-4041-9E75-3301C90B4C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -609,6 +609,14 @@
     <rPh sb="10" eb="11">
       <t>ソ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Lemon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レモン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -992,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1033,7 +1041,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A47" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A48" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1301,22 +1309,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1325,22 +1333,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1349,22 +1357,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="E15">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1373,22 +1381,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1397,22 +1405,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1421,13 +1429,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1436,7 +1444,7 @@
         <v>8</v>
       </c>
       <c r="G18">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1445,22 +1453,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1469,22 +1477,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1493,22 +1501,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1517,22 +1525,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>777</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1541,22 +1549,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1565,19 +1573,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G24">
         <v>150</v>
@@ -1589,22 +1597,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1613,22 +1621,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1637,22 +1645,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1661,19 +1669,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>120</v>
@@ -1685,19 +1693,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>120</v>
@@ -1709,16 +1717,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1733,13 +1741,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1757,16 +1765,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -1781,13 +1789,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -1805,16 +1813,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1829,13 +1837,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1853,22 +1861,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -1877,22 +1885,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
         <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>20</v>
-      </c>
-      <c r="G37">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1901,22 +1909,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G38">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1925,22 +1933,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -1949,22 +1957,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -1973,16 +1981,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -1997,19 +2005,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>150</v>
@@ -2021,19 +2029,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>150</v>
@@ -2045,19 +2053,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>150</v>
@@ -2069,19 +2077,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G45">
         <v>150</v>
@@ -2093,13 +2101,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -2117,21 +2125,45 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>122</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>123</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>124</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>10</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>150</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86913FD-6FC2-4041-9E75-3301C90B4C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C27FFC4-D8E6-4A07-A4CA-C1F6F3FCE04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -617,6 +617,39 @@
   </si>
   <si>
     <t>レモン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrangeGlass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな香り</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな草</t>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HimawariSeed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひまわりの種</t>
+    <rPh sb="5" eb="6">
+      <t>タネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つぶつぶひまわり</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1000,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1041,7 +1074,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A48" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A50" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1150,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1174,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1246,7 +1279,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1273,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>60</v>
@@ -1294,7 +1327,7 @@
         <v>97</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -1318,10 +1351,10 @@
         <v>128</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -1342,7 +1375,7 @@
         <v>62</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1414,7 +1447,7 @@
         <v>32</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -1438,7 +1471,7 @@
         <v>69</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1462,7 +1495,7 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1582,7 +1615,7 @@
         <v>70</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>15</v>
@@ -1702,7 +1735,7 @@
         <v>51</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1726,7 +1759,7 @@
         <v>106</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1798,7 +1831,7 @@
         <v>112</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -1822,7 +1855,7 @@
         <v>126</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -1918,7 +1951,7 @@
         <v>71</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>20</v>
@@ -2161,10 +2194,58 @@
         <v>2</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49">
+        <v>-30</v>
+      </c>
+      <c r="F49">
+        <v>-30</v>
+      </c>
+      <c r="G49">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C27FFC4-D8E6-4A07-A4CA-C1F6F3FCE04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E506F-DE03-4A7D-93EF-A4D4745B3CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="2220" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4200" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -624,13 +624,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>へんな香り</t>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>へんな草</t>
     <rPh sb="3" eb="4">
       <t>クサ</t>
@@ -650,6 +643,30 @@
   </si>
   <si>
     <t>つぶつぶひまわり</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな草の</t>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抹茶味</t>
+    <rPh sb="0" eb="2">
+      <t>マッチャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨーグルト添え</t>
+    <rPh sb="5" eb="6">
+      <t>ソ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1035,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1708,7 +1725,7 @@
         <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1924,7 +1941,7 @@
         <v>98</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -2209,13 +2226,13 @@
         <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E49">
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="F49">
         <v>-30</v>
@@ -2230,13 +2247,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" t="s">
         <v>132</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>133</v>
-      </c>
-      <c r="D50" t="s">
-        <v>134</v>
       </c>
       <c r="E50">
         <v>2</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915E506F-DE03-4A7D-93EF-A4D4745B3CD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0658107-33AC-4EA5-A093-7280C19C9D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2265" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3165" yWindow="2655" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -2232,10 +2232,10 @@
         <v>134</v>
       </c>
       <c r="E49">
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="F49">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="G49">
         <v>150</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0658107-33AC-4EA5-A093-7280C19C9D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1473B0-9626-46AE-A1A0-4C60CB8D5052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="2655" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3285" yWindow="1275" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -2232,7 +2232,7 @@
         <v>134</v>
       </c>
       <c r="E49">
-        <v>-30</v>
+        <v>-50</v>
       </c>
       <c r="F49">
         <v>-5</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1473B0-9626-46AE-A1A0-4C60CB8D5052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E9B090-57B3-4D28-8A87-F7FC59003009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1275" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4125" yWindow="2715" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1152,7 +1152,7 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1176,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -1200,10 +1200,10 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -1224,10 +1224,10 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>30</v>
@@ -1272,10 +1272,10 @@
         <v>68</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>30</v>
@@ -1296,7 +1296,7 @@
         <v>90</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1320,10 +1320,10 @@
         <v>94</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>60</v>
@@ -1344,10 +1344,10 @@
         <v>97</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>50</v>
@@ -1368,10 +1368,10 @@
         <v>128</v>
       </c>
       <c r="E13">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -1395,7 +1395,7 @@
         <v>7</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -1464,10 +1464,10 @@
         <v>32</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>20</v>
@@ -1488,7 +1488,7 @@
         <v>69</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1512,7 +1512,7 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>8</v>
@@ -1536,10 +1536,10 @@
         <v>29</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <v>200</v>
@@ -1560,10 +1560,10 @@
         <v>30</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>500</v>
@@ -2088,10 +2088,10 @@
         <v>76</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>150</v>
@@ -2112,10 +2112,10 @@
         <v>79</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44">
         <v>150</v>
@@ -2136,10 +2136,10 @@
         <v>102</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45">
         <v>150</v>
@@ -2160,10 +2160,10 @@
         <v>100</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G46">
         <v>150</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E9B090-57B3-4D28-8A87-F7FC59003009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B743A-4336-489C-BBA2-FCA18CD2C632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="2715" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2865" yWindow="1305" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -372,10 +372,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>さくら</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SilverChip</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -667,6 +663,42 @@
     <rPh sb="5" eb="6">
       <t>ソ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイストッピング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りんご</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りんごのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Vanilla</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バニラ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1050,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1080,10 +1112,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>33</v>
@@ -1091,7 +1123,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A50" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A52" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1125,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1173,7 +1205,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1287,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1311,13 +1343,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="C11" t="s">
-        <v>94</v>
-      </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1335,13 +1367,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>96</v>
-      </c>
-      <c r="D12" t="s">
-        <v>97</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -1359,13 +1391,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
         <v>127</v>
       </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1383,22 +1415,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1407,22 +1439,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1431,22 +1463,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E16">
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1455,22 +1487,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>-30</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1479,22 +1511,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1503,22 +1535,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
       <c r="G19">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1527,22 +1559,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1551,13 +1583,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1566,7 +1598,7 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1575,22 +1607,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1599,22 +1631,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>777</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1623,22 +1655,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>150</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1647,19 +1679,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>150</v>
@@ -1671,22 +1703,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1695,22 +1727,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1719,22 +1751,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1743,19 +1775,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>120</v>
@@ -1767,19 +1799,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>120</v>
@@ -1791,16 +1823,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
         <v>105</v>
       </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -1815,13 +1847,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1839,16 +1871,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -1863,13 +1895,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1887,16 +1919,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>5</v>
@@ -1911,13 +1943,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1935,22 +1967,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1959,22 +1991,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
         <v>50</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1983,22 +2015,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2007,22 +2039,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2031,22 +2063,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2055,22 +2087,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2079,16 +2111,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43">
         <v>10</v>
@@ -2103,19 +2135,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E44">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>150</v>
@@ -2127,19 +2159,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>150</v>
@@ -2151,19 +2183,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E46">
         <v>12</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>150</v>
@@ -2175,19 +2207,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>101</v>
       </c>
       <c r="E47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G47">
         <v>150</v>
@@ -2199,19 +2231,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G48">
         <v>150</v>
@@ -2223,19 +2255,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E49">
-        <v>-50</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="G49">
         <v>150</v>
@@ -2247,21 +2279,69 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51">
+        <v>-50</v>
+      </c>
+      <c r="F51">
+        <v>-5</v>
+      </c>
+      <c r="G51">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
         <v>3</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>30</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B743A-4336-489C-BBA2-FCA18CD2C632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A7D9F0-891D-483D-8DB9-9560EE12840C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1305" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="147">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -699,6 +699,14 @@
   </si>
   <si>
     <t>バニラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Premium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレミアム</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1082,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1123,7 +1131,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A52" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A53" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2343,6 +2351,30 @@
       </c>
       <c r="G52">
         <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A7D9F0-891D-483D-8DB9-9560EE12840C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125CB2A-4A3F-494C-9C2E-949784CD8AD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -707,6 +707,54 @@
   </si>
   <si>
     <t>プレミアム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ALLPotion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完全無欠</t>
+    <rPh sb="0" eb="4">
+      <t>カンゼンムケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完全無欠の</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミント添え</t>
+    <rPh sb="3" eb="4">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Shiratama</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白玉</t>
+    <rPh sb="0" eb="2">
+      <t>シラタマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白玉だんご</t>
+    <rPh sb="0" eb="2">
+      <t>シラタマ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1090,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1131,7 +1179,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A53" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A56" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1531,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>20</v>
@@ -2167,16 +2215,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -2191,19 +2239,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>150</v>
@@ -2215,19 +2263,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47">
         <v>150</v>
@@ -2239,19 +2287,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48">
         <v>150</v>
@@ -2263,19 +2311,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G49">
         <v>150</v>
@@ -2287,19 +2335,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G50">
         <v>150</v>
@@ -2311,19 +2359,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E51">
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="G51">
         <v>150</v>
@@ -2335,22 +2383,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>-50</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2359,21 +2407,93 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54">
+        <v>-10</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>145</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>146</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>146</v>
       </c>
-      <c r="E53">
+      <c r="E55">
         <v>5</v>
       </c>
-      <c r="F53">
+      <c r="F55">
         <v>30</v>
       </c>
-      <c r="G53">
+      <c r="G55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
         <v>300</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A125CB2A-4A3F-494C-9C2E-949784CD8AD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AD4C4-ECDD-4D56-A45B-48A6D94417CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレンジ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Non</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -67,10 +63,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ぶどう</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Blueberry</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -99,14 +91,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ししゃも</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ピンクブラッドオレンジ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PinkBloodOrange</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -115,13 +99,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>焦がしバター</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Honey</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -130,10 +107,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>はちみつ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メープル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -143,14 +116,6 @@
   </si>
   <si>
     <t>EmeraldSuger</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ピンクシュガー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>エメラルドシュガー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -203,15 +168,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジャムバレット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MiracleTapioka</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミラクルタピオカ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -226,10 +183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クリスタルシュガー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Zarame</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -276,10 +229,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ホイップクリーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ほしの粉</t>
     <rPh sb="3" eb="4">
       <t>コナ</t>
@@ -310,18 +259,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アイス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CornFrake</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コーンフレーク</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ナッツトッピング</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -339,13 +280,6 @@
   </si>
   <si>
     <t>SakuraChip</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>さくらの花びら</t>
-    <rPh sb="4" eb="5">
-      <t>ハナ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -376,10 +310,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>シルバーチップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>シルバー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -388,10 +318,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>キラキラハート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ハート</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -400,26 +326,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジュエリーシュガー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MixColor</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ミックスカラースプレー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MixChoco</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ミックスチョコスプレー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JamBullet</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -493,17 +407,6 @@
   </si>
   <si>
     <t>WhipeedCreamOrange</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジホイップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホイップ添え</t>
-    <rPh sb="4" eb="5">
-      <t>ソ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -518,15 +421,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ぶどうホイップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WhipeedCreamBlueberry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブルーベリーホイップ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -541,15 +436,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ストロベリーホイップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>WhipeedCreamBanana</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バナナホイップ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -564,10 +451,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピーチホイップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ピーチホイップ添え</t>
     <rPh sb="7" eb="8">
       <t>ソ</t>
@@ -649,16 +532,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>抹茶味</t>
-    <rPh sb="0" eb="2">
-      <t>マッチャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ヨーグルト添え</t>
     <rPh sb="5" eb="6">
       <t>ソ</t>
@@ -729,10 +602,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ミント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ミント添え</t>
     <rPh sb="3" eb="4">
       <t>ソ</t>
@@ -744,17 +613,146 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>白玉</t>
-    <rPh sb="0" eb="2">
-      <t>シラタマ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>白玉だんご</t>
     <rPh sb="0" eb="2">
       <t>シラタマ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【クリーム添え】</t>
+    <rPh sb="5" eb="6">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリーム添え</t>
+    <rPh sb="4" eb="5">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピーチクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焦がし香る</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メープル風味</t>
+    <rPh sb="4" eb="6">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はちみつ風味</t>
+    <rPh sb="4" eb="6">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュエリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mカラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mチョコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀つぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白玉入り</t>
+    <rPh sb="0" eb="2">
+      <t>シラタマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイスのせ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抹茶風味</t>
+    <rPh sb="0" eb="2">
+      <t>マッチャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラクルタピ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラフル砂糖</t>
+    <rPh sb="4" eb="6">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクシュガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エメラルド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクオレ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1140,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1168,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1183,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1207,13 +1205,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1231,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -1255,13 +1253,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1279,13 +1277,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -1303,13 +1301,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1327,13 +1325,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1351,13 +1349,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1375,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1399,13 +1397,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>7</v>
@@ -1423,13 +1421,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -1447,13 +1445,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1471,13 +1469,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1495,13 +1493,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -1519,13 +1517,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1543,13 +1541,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>-30</v>
@@ -1567,13 +1565,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -1591,13 +1589,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1615,13 +1613,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>14</v>
@@ -1639,13 +1637,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1663,13 +1661,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -1687,13 +1685,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1711,13 +1709,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>20</v>
@@ -1735,13 +1733,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1759,13 +1757,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1783,13 +1781,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1807,13 +1805,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1831,13 +1829,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -1855,13 +1853,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1879,13 +1877,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1903,13 +1901,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1927,13 +1925,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1951,13 +1949,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1975,13 +1973,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -1999,13 +1997,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2023,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2047,13 +2045,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -2071,13 +2069,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E39">
         <v>7</v>
@@ -2095,13 +2093,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2119,13 +2117,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E41">
         <v>10</v>
@@ -2143,13 +2141,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2167,13 +2165,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -2191,13 +2189,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2215,13 +2213,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="E45">
         <v>-15</v>
@@ -2239,13 +2237,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -2263,13 +2261,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E47">
         <v>12</v>
@@ -2287,13 +2285,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -2311,13 +2309,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E49">
         <v>12</v>
@@ -2335,13 +2333,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2359,13 +2357,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2383,13 +2381,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>-50</v>
@@ -2407,13 +2405,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2431,13 +2429,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>-10</v>
@@ -2455,13 +2453,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -2479,13 +2477,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>50</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AD4C4-ECDD-4D56-A45B-48A6D94417CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3275A57-C0DD-4B37-83EA-EEB766181521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1920" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -753,6 +753,60 @@
   </si>
   <si>
     <t>ピンクオレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Earlgrey</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アールグレイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アールグレイ香る</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoseWater</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バラ水</t>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バラの香り</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Marsala</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルサラ酒</t>
+    <rPh sb="4" eb="5">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルサラ酒入り</t>
+    <rPh sb="4" eb="5">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1136,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1177,7 +1231,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A56" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A59" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1454,7 +1508,7 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -2405,22 +2459,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G53">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -2429,19 +2483,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E54">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>30</v>
@@ -2453,22 +2507,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>30</v>
       </c>
       <c r="G55">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -2477,21 +2531,93 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56">
+        <v>-15</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57">
+        <v>-10</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>118</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>30</v>
+      </c>
+      <c r="G58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>119</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C59" t="s">
         <v>120</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D59" t="s">
         <v>121</v>
       </c>
-      <c r="E56">
+      <c r="E59">
         <v>50</v>
       </c>
-      <c r="F56">
+      <c r="F59">
         <v>100</v>
       </c>
-      <c r="G56">
+      <c r="G59">
         <v>300</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3275A57-C0DD-4B37-83EA-EEB766181521}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF0E93-632D-403A-A42B-2227092CBAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -136,13 +136,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピンク色の</t>
-    <rPh sb="3" eb="4">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>焦がしバター香る</t>
     <rPh sb="0" eb="1">
       <t>コ</t>
@@ -172,13 +165,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>奇跡のタピオカ</t>
-    <rPh sb="0" eb="2">
-      <t>キセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CrystalSuger</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -354,14 +340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チーズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Cheese</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Pineapple</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -371,10 +349,6 @@
   </si>
   <si>
     <t>Cherry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>チェリー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -473,13 +447,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラベンダーの香り</t>
-    <rPh sb="6" eb="7">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>slot_getgirllove</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -525,13 +492,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>へんな草の</t>
-    <rPh sb="3" eb="4">
-      <t>クサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ヨーグルト添え</t>
     <rPh sb="5" eb="6">
       <t>ソ</t>
@@ -539,14 +499,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレンジのせ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ぶどうのせ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さくらのせ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -556,14 +508,6 @@
   </si>
   <si>
     <t>Apple</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>りんご</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>りんごのせ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -764,28 +708,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アールグレイ香る</t>
-    <rPh sb="6" eb="7">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RoseWater</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バラ水</t>
-    <rPh sb="2" eb="3">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バラの香り</t>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -807,6 +730,78 @@
     <rPh sb="5" eb="6">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリームチーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CreamCheese</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リコッタチーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RicottaCheese</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Raspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クランベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cranberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラックベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blackcurrant</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カシス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクオレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グレープ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミラクルタピオカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローズ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1190,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1220,28 +1215,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A59" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A64" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1262,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1286,13 +1281,13 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1310,10 +1305,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1340,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1355,22 +1350,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1379,22 +1374,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1403,22 +1398,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1427,22 +1422,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1451,22 +1446,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1475,22 +1470,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1499,22 +1494,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="E13">
-        <v>-7</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1523,22 +1518,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1547,22 +1542,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1571,22 +1566,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1595,22 +1590,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E17">
-        <v>-30</v>
+        <v>-7</v>
       </c>
       <c r="F17">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1619,22 +1614,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
       <c r="G18">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1643,22 +1638,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1667,22 +1662,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1691,22 +1686,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1715,22 +1710,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="G22">
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1739,22 +1734,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1763,22 +1758,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>777</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1787,22 +1782,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1811,22 +1806,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1835,22 +1830,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>60</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1859,22 +1854,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1883,22 +1878,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>120</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1907,22 +1902,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -1931,22 +1926,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -1955,13 +1950,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1970,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1979,22 +1974,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2003,19 +1998,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>120</v>
@@ -2027,19 +2022,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>120</v>
@@ -2051,16 +2046,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>5</v>
@@ -2075,13 +2070,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2099,22 +2094,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2123,22 +2118,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2147,19 +2142,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <v>120</v>
@@ -2171,22 +2166,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2195,13 +2190,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2210,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="G42">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2219,22 +2214,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
         <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43">
-        <v>7</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2243,22 +2238,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2267,22 +2262,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="E45">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G45">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2291,22 +2286,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2315,22 +2310,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2339,19 +2334,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="F48">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G48">
         <v>150</v>
@@ -2363,19 +2358,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49">
         <v>150</v>
@@ -2387,19 +2382,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>-15</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>150</v>
@@ -2411,19 +2406,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>150</v>
@@ -2435,19 +2430,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="E52">
-        <v>-50</v>
+        <v>7</v>
       </c>
       <c r="F52">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="G52">
         <v>150</v>
@@ -2459,19 +2454,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G53">
         <v>150</v>
@@ -2483,22 +2478,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G54">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -2507,19 +2502,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G55">
         <v>150</v>
@@ -2531,19 +2526,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="E56">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G56">
         <v>150</v>
@@ -2555,22 +2550,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E57">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -2579,22 +2574,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E58">
         <v>5</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G58">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -2603,21 +2598,141 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61">
+        <v>-15</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62">
+        <v>-10</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>30</v>
+      </c>
+      <c r="G63">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64">
         <v>50</v>
       </c>
-      <c r="F59">
+      <c r="F64">
         <v>100</v>
       </c>
-      <c r="G59">
+      <c r="G64">
         <v>300</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBF0E93-632D-403A-A42B-2227092CBAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC1796-5CEF-479B-B3BE-629A45A6926A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="2400" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4110" yWindow="2610" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -802,6 +802,14 @@
   </si>
   <si>
     <t>ローズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dorodango</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どろんこ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1185,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1226,7 +1234,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A64" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A65" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1734,22 +1742,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>-100</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1758,22 +1766,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1782,22 +1790,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>8</v>
       </c>
       <c r="G25">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1806,22 +1814,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1830,22 +1838,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
         <v>20</v>
       </c>
-      <c r="C27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>15</v>
-      </c>
       <c r="G27">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1854,22 +1862,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1878,22 +1886,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>777</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1902,22 +1910,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>150</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -1926,19 +1934,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31">
         <v>150</v>
@@ -1950,22 +1958,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1974,22 +1982,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1998,22 +2006,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2022,19 +2030,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>120</v>
@@ -2046,19 +2054,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>120</v>
@@ -2070,16 +2078,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2094,13 +2102,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2118,16 +2126,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -2142,13 +2150,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2166,16 +2174,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -2190,13 +2198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2214,22 +2222,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2238,19 +2246,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>50</v>
@@ -2262,22 +2270,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2286,22 +2294,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G46">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2310,22 +2318,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G47">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -2334,22 +2342,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2358,16 +2366,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -2382,16 +2390,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E50">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -2406,16 +2414,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2430,19 +2438,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>150</v>
@@ -2454,19 +2462,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <v>7</v>
       </c>
       <c r="F53">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53">
         <v>150</v>
@@ -2478,19 +2486,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54">
         <v>150</v>
@@ -2502,19 +2510,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E55">
         <v>3</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <v>150</v>
@@ -2526,19 +2534,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56">
         <v>150</v>
@@ -2550,19 +2558,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E57">
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <v>150</v>
@@ -2574,19 +2582,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>-50</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G58">
         <v>150</v>
@@ -2598,22 +2606,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G59">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -2622,22 +2630,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
         <v>30</v>
-      </c>
-      <c r="G60">
-        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.4">
@@ -2646,19 +2654,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E61">
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>150</v>
@@ -2670,22 +2678,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="E62">
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.4">
@@ -2694,22 +2702,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
         <v>30</v>
-      </c>
-      <c r="G63">
-        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.4">
@@ -2718,21 +2726,45 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>108</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>109</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>110</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>50</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>100</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>300</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC1796-5CEF-479B-B3BE-629A45A6926A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B317D-25B8-41F1-AD03-1E9471FF7C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2610" windowWidth="24075" windowHeight="12885" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6B317D-25B8-41F1-AD03-1E9471FF7C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56850084-46DE-45BA-A79A-72B5EE872DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2423,7 +2423,7 @@
         <v>112</v>
       </c>
       <c r="E51">
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2771,6 +2771,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56850084-46DE-45BA-A79A-72B5EE872DF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF5333-B6B6-4906-A875-EDD1B616D5C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1415,10 +1415,10 @@
         <v>155</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <v>15</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AF5333-B6B6-4906-A875-EDD1B616D5C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7EF80-46F4-487B-9273-D3C6B93F2755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1418,7 +1418,7 @@
         <v>30</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>15</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7EF80-46F4-487B-9273-D3C6B93F2755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C8492-6591-415A-AE34-23D3C361D6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="197">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>Nuts</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ナッツ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -215,13 +211,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ほしの粉</t>
-    <rPh sb="3" eb="4">
-      <t>コナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Banana</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -234,13 +223,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>梨</t>
-    <rPh sb="0" eb="1">
-      <t>ナシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IceCream</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -266,10 +248,6 @@
   </si>
   <si>
     <t>SakuraChip</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>梨</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -425,13 +403,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピーチホイップ添え</t>
-    <rPh sb="7" eb="8">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ぶどうホイップ添え</t>
     <rPh sb="7" eb="8">
       <t>ソ</t>
@@ -451,13 +422,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ストロベリーホイップ添え</t>
-    <rPh sb="10" eb="11">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Lemon</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -602,34 +566,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>焦がし香る</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メープル風味</t>
-    <rPh sb="4" eb="6">
-      <t>フウミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>はちみつ風味</t>
-    <rPh sb="4" eb="6">
-      <t>フウミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キラハート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ジュエリー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -663,10 +599,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コーン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>抹茶風味</t>
     <rPh sb="0" eb="2">
       <t>マッチャ</t>
@@ -716,13 +648,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マルサラ酒</t>
-    <rPh sb="4" eb="5">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マルサラ酒入り</t>
     <rPh sb="4" eb="5">
       <t>シュ</t>
@@ -810,6 +735,301 @@
   </si>
   <si>
     <t>どろんこ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青臭い</t>
+    <rPh sb="0" eb="2">
+      <t>アオクサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどうの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジの香り</t>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーベリー風味</t>
+    <rPh sb="6" eb="8">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリー風味</t>
+    <rPh sb="5" eb="7">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クランベリー風味</t>
+    <rPh sb="6" eb="8">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王様の香り</t>
+    <rPh sb="0" eb="2">
+      <t>オウサマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>梨の香り</t>
+    <rPh sb="0" eb="1">
+      <t>ナシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桃の香り</t>
+    <rPh sb="0" eb="1">
+      <t>モモ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>瑞々しい</t>
+    <rPh sb="0" eb="2">
+      <t>ミズミズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらんぼ風味</t>
+    <rPh sb="5" eb="7">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レモンの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りんごの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ししゃもの香り</t>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どろだらけ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焦がし風味</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>はちみつの香り</t>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メープルの香り</t>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バニラ風味</t>
+    <rPh sb="3" eb="5">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゆめの香り</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ばらの香り</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リキュール風味</t>
+    <rPh sb="5" eb="7">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アールグレイ風味</t>
+    <rPh sb="6" eb="8">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダーの香り</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さっくり+5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくさくコーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごホイップ添え</t>
+    <rPh sb="7" eb="8">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>桃ホイップ添え</t>
+    <rPh sb="0" eb="1">
+      <t>モモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カシスの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ElderFlower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エルダー花の香り</t>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスカット風味</t>
+    <rPh sb="5" eb="7">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫陽花の香り</t>
+    <rPh sb="0" eb="3">
+      <t>アジサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫陽花</t>
+    <rPh sb="0" eb="3">
+      <t>アジサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Hydrangea</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すみれの香り</t>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儚げな</t>
+    <rPh sb="0" eb="1">
+      <t>ハカナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Violette</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>slot_beauty</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1193,10 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1206,10 +1427,10 @@
     <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="7" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1223,28 +1444,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A65" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A68" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1255,8 +1479,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1268,7 +1495,7 @@
         <v>158</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1279,20 +1506,23 @@
       <c r="G3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1303,8 +1533,11 @@
       <c r="G4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1313,10 +1546,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1327,8 +1560,11 @@
       <c r="G5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1337,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1351,20 +1587,23 @@
       <c r="G6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1375,20 +1614,23 @@
       <c r="G7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1399,23 +1641,26 @@
       <c r="G8">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -1423,20 +1668,23 @@
       <c r="G9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1447,8 +1695,11 @@
       <c r="G10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1457,7 +1708,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1471,20 +1722,23 @@
       <c r="G11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1495,20 +1749,23 @@
       <c r="G12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -1519,20 +1776,23 @@
       <c r="G13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -1543,20 +1803,23 @@
       <c r="G14">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -1567,20 +1830,23 @@
       <c r="G15">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -1591,20 +1857,23 @@
       <c r="G16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>-7</v>
@@ -1615,20 +1884,23 @@
       <c r="G17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -1639,8 +1911,11 @@
       <c r="G18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1649,13 +1924,13 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1663,20 +1938,23 @@
       <c r="G19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1687,20 +1965,23 @@
       <c r="G20">
         <v>150</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -1711,20 +1992,23 @@
       <c r="G21">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>-30</v>
@@ -1735,23 +2019,26 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E23">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="F23">
         <v>-30</v>
@@ -1759,20 +2046,23 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1783,23 +2073,26 @@
       <c r="G24">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1807,20 +2100,23 @@
       <c r="G25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" t="s">
         <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -1831,20 +2127,23 @@
       <c r="G26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1855,20 +2154,23 @@
       <c r="G27">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -1879,20 +2181,23 @@
       <c r="G28">
         <v>500</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1903,20 +2208,23 @@
       <c r="G29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -1927,20 +2235,23 @@
       <c r="G30">
         <v>777</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -1951,20 +2262,23 @@
       <c r="G31">
         <v>150</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1975,20 +2289,23 @@
       <c r="G32">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1999,20 +2316,23 @@
       <c r="G33">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s">
-        <v>32</v>
-      </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -2023,20 +2343,23 @@
       <c r="G34">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2047,20 +2370,23 @@
       <c r="G35">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2071,20 +2397,23 @@
       <c r="G36">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -2095,20 +2424,23 @@
       <c r="G37">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2119,20 +2451,23 @@
       <c r="G38">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2143,20 +2478,23 @@
       <c r="G39">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2167,20 +2505,23 @@
       <c r="G40">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2191,20 +2532,23 @@
       <c r="G41">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2215,20 +2559,23 @@
       <c r="G42">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2239,20 +2586,23 @@
       <c r="G43">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2263,20 +2613,23 @@
       <c r="G44">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -2287,20 +2640,23 @@
       <c r="G45">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2311,20 +2667,23 @@
       <c r="G46">
         <v>120</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>10</v>
@@ -2335,20 +2694,23 @@
       <c r="G47">
         <v>240</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2359,20 +2721,23 @@
       <c r="G48">
         <v>30</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E49">
         <v>7</v>
@@ -2383,20 +2748,23 @@
       <c r="G49">
         <v>150</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2407,23 +2775,26 @@
       <c r="G50">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E51">
-        <v>-50</v>
+        <v>-3</v>
       </c>
       <c r="F51">
         <v>10</v>
@@ -2431,20 +2802,23 @@
       <c r="G51">
         <v>150</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -2455,20 +2829,23 @@
       <c r="G52">
         <v>150</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -2479,20 +2856,23 @@
       <c r="G53">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E54">
         <v>7</v>
@@ -2503,20 +2883,23 @@
       <c r="G54">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E55">
         <v>3</v>
@@ -2527,20 +2910,23 @@
       <c r="G55">
         <v>150</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E56">
         <v>3</v>
@@ -2551,20 +2937,23 @@
       <c r="G56">
         <v>150</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2575,167 +2964,188 @@
       <c r="G57">
         <v>150</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>189</v>
       </c>
       <c r="E58">
-        <v>-50</v>
+        <v>7</v>
       </c>
       <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>250</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59">
+        <v>350</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>35</v>
+      </c>
+      <c r="G60">
+        <v>500</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61">
+        <v>-30</v>
+      </c>
+      <c r="F61">
         <v>-5</v>
-      </c>
-      <c r="G58">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>12</v>
-      </c>
-      <c r="G59">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>3</v>
-      </c>
-      <c r="G60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>30</v>
       </c>
       <c r="G61">
         <v>150</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H61">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E62">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G62">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E63">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G63">
         <v>30</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F64">
         <v>30</v>
@@ -2743,29 +3153,116 @@
       <c r="G64">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+      <c r="G65">
+        <v>150</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
         <v>108</v>
       </c>
-      <c r="C65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65">
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>30</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>300</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68">
         <v>50</v>
       </c>
-      <c r="F65">
+      <c r="F68">
         <v>100</v>
       </c>
-      <c r="G65">
+      <c r="G68">
         <v>300</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4C8492-6591-415A-AE34-23D3C361D6E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52E6909-2D0D-4349-8DC2-90865A15CA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3195" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3345" yWindow="2415" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1741,7 +1741,7 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -1768,7 +1768,7 @@
         <v>185</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1822,7 +1822,7 @@
         <v>65</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -1849,7 +1849,7 @@
         <v>67</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1903,7 +1903,7 @@
         <v>149</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>136</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -2092,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2119,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -2632,7 +2632,7 @@
         <v>99</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F45">
         <v>12</v>
@@ -2686,7 +2686,7 @@
         <v>96</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>30</v>
@@ -2848,7 +2848,7 @@
         <v>55</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F53">
         <v>12</v>
@@ -2875,7 +2875,7 @@
         <v>72</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F54">
         <v>14</v>
@@ -2983,7 +2983,7 @@
         <v>189</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F58">
         <v>20</v>
@@ -3010,7 +3010,7 @@
         <v>191</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <v>25</v>
@@ -3019,7 +3019,7 @@
         <v>350</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3037,7 +3037,7 @@
         <v>194</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>35</v>
@@ -3046,7 +3046,7 @@
         <v>500</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3145,7 +3145,7 @@
         <v>151</v>
       </c>
       <c r="E64">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F64">
         <v>30</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52E6909-2D0D-4349-8DC2-90865A15CA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084298A8-2078-4414-AB52-41D23FFD4DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2415" windowWidth="22740" windowHeight="11535" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4695" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -546,15 +546,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレクリーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ぶどうクリーム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブルクリーム</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1030,6 +1022,74 @@
   </si>
   <si>
     <t>slot_beauty</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルベリクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリーホイップ添え</t>
+    <rPh sb="9" eb="10">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamRaspberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamCranberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クランクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クランベリーホイップ添え</t>
+    <rPh sb="10" eb="11">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラッククリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラックベリーホイップ添え</t>
+    <rPh sb="11" eb="12">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamBlackberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【リコッタクリーム添え】</t>
+    <rPh sb="9" eb="10">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リコッタクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamRicotta</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1413,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1453,12 +1513,12 @@
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A68" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A72" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1492,10 +1552,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -1519,10 +1579,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -1546,10 +1606,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1573,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1597,13 +1657,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1624,13 +1684,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -1651,13 +1711,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1678,13 +1738,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1708,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -1735,7 +1795,7 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -1762,10 +1822,10 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1789,7 +1849,7 @@
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -1816,7 +1876,7 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
@@ -1843,7 +1903,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -1870,7 +1930,7 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
@@ -1897,10 +1957,10 @@
         <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1924,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1948,13 +2008,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1975,13 +2035,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -2005,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
@@ -2029,13 +2089,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E23">
         <v>-50</v>
@@ -2059,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2086,7 +2146,7 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
@@ -2113,7 +2173,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -2140,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
@@ -2167,7 +2227,7 @@
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -2221,10 +2281,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30">
         <v>20</v>
@@ -2275,7 +2335,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
         <v>61</v>
@@ -2356,7 +2416,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -2434,25 +2494,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>120</v>
       </c>
       <c r="H38">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2461,13 +2521,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2479,7 +2539,7 @@
         <v>120</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -2488,16 +2548,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -2506,7 +2566,7 @@
         <v>120</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -2515,13 +2575,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2533,7 +2593,7 @@
         <v>120</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -2542,16 +2602,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2560,7 +2620,7 @@
         <v>120</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -2569,16 +2629,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2587,7 +2647,7 @@
         <v>120</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -2596,22 +2656,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H44">
         <v>10</v>
@@ -2623,25 +2683,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -2650,25 +2710,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>120</v>
       </c>
       <c r="H46">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -2677,25 +2737,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H47">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -2704,25 +2764,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G48">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -2731,25 +2791,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -2758,25 +2818,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G50">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -2785,25 +2845,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E51">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G51">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H51">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -2812,25 +2872,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -2839,25 +2899,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <v>150</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -2866,19 +2926,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G54">
         <v>150</v>
@@ -2893,25 +2953,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G55">
         <v>150</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -2920,19 +2980,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <v>150</v>
@@ -2947,25 +3007,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G57">
         <v>150</v>
       </c>
       <c r="H57">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -2974,25 +3034,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G58">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H58">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3001,25 +3061,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G59">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3028,25 +3088,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F60">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3055,25 +3115,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E61">
-        <v>-30</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="G61">
         <v>150</v>
       </c>
       <c r="H61">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3082,25 +3142,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G62">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3109,25 +3169,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3136,25 +3196,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="E64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>35</v>
+      </c>
+      <c r="G64">
+        <v>500</v>
+      </c>
+      <c r="H64">
         <v>7</v>
-      </c>
-      <c r="F64">
-        <v>30</v>
-      </c>
-      <c r="G64">
-        <v>300</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3163,25 +3223,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="E65">
-        <v>12</v>
+        <v>-30</v>
       </c>
       <c r="F65">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="G65">
         <v>150</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3190,25 +3250,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E66">
         <v>5</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3217,25 +3277,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
         <v>30</v>
       </c>
-      <c r="G67">
-        <v>300</v>
-      </c>
       <c r="H67">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3244,24 +3304,132 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F68">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G68">
         <v>300</v>
       </c>
       <c r="H68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>150</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>30</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+      <c r="G71">
+        <v>300</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72">
+        <v>50</v>
+      </c>
+      <c r="F72">
+        <v>100</v>
+      </c>
+      <c r="G72">
+        <v>300</v>
+      </c>
+      <c r="H72">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084298A8-2078-4414-AB52-41D23FFD4DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C375210-CEA6-4EF7-A4C5-2BC1F3CC9F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="3450" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1010,13 +1010,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>儚げな</t>
-    <rPh sb="0" eb="1">
-      <t>ハカナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Violette</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1090,6 +1083,16 @@
   </si>
   <si>
     <t>WhipeedCreamRicotta</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儚げな紫</t>
+    <rPh sb="0" eb="1">
+      <t>ハカナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラサキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1476,8 +1479,8 @@
   <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1513,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1558,7 +1561,7 @@
         <v>144</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1567,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1585,7 +1588,7 @@
         <v>145</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -1594,7 +1597,7 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1612,7 +1615,7 @@
         <v>146</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1621,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1639,7 +1642,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1648,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1666,7 +1669,7 @@
         <v>137</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1675,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1693,7 +1696,7 @@
         <v>138</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -1720,7 +1723,7 @@
         <v>141</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>20</v>
@@ -1747,7 +1750,7 @@
         <v>143</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1756,7 +1759,7 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1774,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1801,7 +1804,7 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -1810,7 +1813,7 @@
         <v>30</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1828,7 +1831,7 @@
         <v>183</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1855,7 +1858,7 @@
         <v>63</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1864,7 +1867,7 @@
         <v>90</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1882,7 +1885,7 @@
         <v>65</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -1891,7 +1894,7 @@
         <v>60</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1909,7 +1912,7 @@
         <v>67</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1918,7 +1921,7 @@
         <v>50</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1963,7 +1966,7 @@
         <v>147</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -1990,7 +1993,7 @@
         <v>43</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -2017,7 +2020,7 @@
         <v>132</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -2044,7 +2047,7 @@
         <v>134</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -2125,7 +2128,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -2134,7 +2137,7 @@
         <v>20</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2152,7 +2155,7 @@
         <v>48</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -2179,7 +2182,7 @@
         <v>17</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -2206,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -2233,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>15</v>
@@ -2242,7 +2245,7 @@
         <v>500</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2260,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2287,7 +2290,7 @@
         <v>148</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>30</v>
@@ -2314,7 +2317,7 @@
         <v>49</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -2323,7 +2326,7 @@
         <v>150</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -2341,7 +2344,7 @@
         <v>61</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>10</v>
@@ -2350,7 +2353,7 @@
         <v>150</v>
       </c>
       <c r="H32">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2368,7 +2371,7 @@
         <v>29</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -2377,7 +2380,7 @@
         <v>60</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -2395,7 +2398,7 @@
         <v>31</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -2422,7 +2425,7 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>7</v>
@@ -2458,7 +2461,7 @@
         <v>120</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2476,7 +2479,7 @@
         <v>109</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -2494,16 +2497,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>12</v>
@@ -2524,13 +2527,13 @@
         <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" t="s">
         <v>75</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>5</v>
@@ -2557,7 +2560,7 @@
         <v>83</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>5</v>
@@ -2578,13 +2581,13 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
         <v>78</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -2611,7 +2614,7 @@
         <v>181</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -2629,16 +2632,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" t="s">
         <v>197</v>
       </c>
-      <c r="D43" t="s">
-        <v>198</v>
-      </c>
       <c r="E43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>5</v>
@@ -2656,16 +2659,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
         <v>200</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>201</v>
       </c>
-      <c r="D44" t="s">
-        <v>202</v>
-      </c>
       <c r="E44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -2683,16 +2686,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
         <v>203</v>
       </c>
-      <c r="D45" t="s">
-        <v>204</v>
-      </c>
       <c r="E45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -2719,7 +2722,7 @@
         <v>81</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -2746,7 +2749,7 @@
         <v>182</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -2773,7 +2776,7 @@
         <v>94</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -2800,7 +2803,7 @@
         <v>99</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>12</v>
@@ -2809,7 +2812,7 @@
         <v>50</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -2827,7 +2830,7 @@
         <v>50</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>20</v>
@@ -2854,7 +2857,7 @@
         <v>96</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -2863,7 +2866,7 @@
         <v>240</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -2881,7 +2884,7 @@
         <v>51</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -2908,7 +2911,7 @@
         <v>46</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -2917,7 +2920,7 @@
         <v>150</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -2935,7 +2938,7 @@
         <v>95</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -2944,7 +2947,7 @@
         <v>150</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -2962,7 +2965,7 @@
         <v>106</v>
       </c>
       <c r="E55">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="F55">
         <v>10</v>
@@ -2989,7 +2992,7 @@
         <v>53</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -2998,7 +3001,7 @@
         <v>150</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3016,7 +3019,7 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>12</v>
@@ -3025,7 +3028,7 @@
         <v>150</v>
       </c>
       <c r="H57">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3043,7 +3046,7 @@
         <v>72</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>14</v>
@@ -3052,7 +3055,7 @@
         <v>150</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3070,7 +3073,7 @@
         <v>70</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -3079,7 +3082,7 @@
         <v>150</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3097,7 +3100,7 @@
         <v>71</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -3106,7 +3109,7 @@
         <v>150</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3124,7 +3127,7 @@
         <v>85</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -3151,7 +3154,7 @@
         <v>187</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>20</v>
@@ -3178,7 +3181,7 @@
         <v>189</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>25</v>
@@ -3196,16 +3199,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
         <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>35</v>
@@ -3259,7 +3262,7 @@
         <v>128</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>12</v>
@@ -3268,7 +3271,7 @@
         <v>150</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3286,7 +3289,7 @@
         <v>93</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -3313,7 +3316,7 @@
         <v>149</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>30</v>
@@ -3340,7 +3343,7 @@
         <v>131</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>-10</v>
       </c>
       <c r="F69">
         <v>20</v>
@@ -3367,7 +3370,7 @@
         <v>108</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -3394,7 +3397,7 @@
         <v>101</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>30</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mator\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C375210-CEA6-4EF7-A4C5-2BC1F3CC9F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53487729-82D5-4B93-923E-7CE9B569E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="30045" yWindow="3270" windowWidth="13500" windowHeight="11655" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="230">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1093,6 +1093,114 @@
     <rPh sb="3" eb="4">
       <t>ムラサキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrangeIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrawberryIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LemonIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MacchaIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いちごアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レモンアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>抹茶アイス</t>
+    <rPh sb="0" eb="2">
+      <t>マッチャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりオレンジアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりいちごアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりレモンアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>京風抹茶アイス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウフウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マッチャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Marzipan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジパン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>彩り</t>
+    <rPh sb="0" eb="1">
+      <t>イロドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MarzipanGreen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジパン緑</t>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑の彩り</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamCherry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェリーホイップ添え</t>
+    <rPh sb="8" eb="9">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェリークリーム</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1476,11 +1584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1521,7 +1629,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A72" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A79" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2740,13 +2848,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2767,22 +2875,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2794,25 +2902,25 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G49">
         <v>50</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -2821,25 +2929,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50">
         <v>50</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
-      </c>
-      <c r="G50">
-        <v>120</v>
-      </c>
       <c r="H50">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -2848,22 +2956,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
         <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>30</v>
-      </c>
-      <c r="G51">
-        <v>240</v>
       </c>
       <c r="H51">
         <v>15</v>
@@ -2875,25 +2983,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G52">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -2902,22 +3010,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H53">
         <v>15</v>
@@ -2929,25 +3037,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G54">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -2956,25 +3064,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="E55">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H55">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -2983,25 +3091,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G56">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3010,25 +3118,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3037,25 +3145,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G58">
         <v>150</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3064,19 +3172,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>150</v>
@@ -3091,25 +3199,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>150</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3118,19 +3226,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="D61" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>150</v>
@@ -3145,25 +3253,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3172,25 +3280,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G63">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3199,25 +3307,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G64">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3226,25 +3334,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E65">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="G65">
         <v>150</v>
       </c>
       <c r="H65">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3253,25 +3361,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G66">
         <v>150</v>
       </c>
       <c r="H66">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3280,25 +3388,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G67">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3307,25 +3415,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G68">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3334,25 +3442,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D69" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="E69">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G69">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3361,25 +3469,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="G70">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H70">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3388,25 +3496,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3415,24 +3523,213 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>300</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+      <c r="E74">
+        <v>-10</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74">
+        <v>150</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>150</v>
+      </c>
+      <c r="H75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>20</v>
+      </c>
+      <c r="G76">
+        <v>150</v>
+      </c>
+      <c r="H76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>30</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>300</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>102</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C79" t="s">
         <v>103</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D79" t="s">
         <v>104</v>
       </c>
-      <c r="E72">
+      <c r="E79">
         <v>50</v>
       </c>
-      <c r="F72">
+      <c r="F79">
         <v>100</v>
       </c>
-      <c r="G72">
+      <c r="G79">
         <v>300</v>
       </c>
-      <c r="H72">
+      <c r="H79">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53487729-82D5-4B93-923E-7CE9B569E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393649ED-4EEF-4833-82A3-070F87FB18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30045" yWindow="3270" windowWidth="13500" windowHeight="11655" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="5370" yWindow="1815" windowWidth="13035" windowHeight="11760" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="242">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1201,6 +1201,63 @@
   </si>
   <si>
     <t>チェリークリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BlueberryIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーベリーアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりブルーベリーアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリーアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりラズベリーアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RaspberryIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーハワイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青空の輝きブルーハワイ</t>
+    <rPh sb="0" eb="2">
+      <t>アオゾラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BluehawaiIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jasmin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャスミンの香り</t>
+    <rPh sb="6" eb="7">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャスミン</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1584,11 +1641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1629,7 +1686,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A79" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A83" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3118,25 +3175,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G57">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3145,22 +3202,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G58">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H58">
         <v>15</v>
@@ -3172,25 +3229,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>237</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G59">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3199,25 +3256,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E60">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3226,13 +3283,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3244,7 +3301,7 @@
         <v>150</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3253,25 +3310,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>150</v>
       </c>
       <c r="H62">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3280,25 +3337,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>150</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3307,19 +3364,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>150</v>
@@ -3334,25 +3391,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G65">
         <v>150</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3361,19 +3418,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G66">
         <v>150</v>
@@ -3388,25 +3445,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G67">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3415,25 +3472,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H68">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3442,25 +3499,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3469,25 +3526,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="E70">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="G70">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H70">
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3496,25 +3553,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G71">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3523,25 +3580,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3550,25 +3607,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G73">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -3577,25 +3634,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E74">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="F74">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="G74">
         <v>150</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3604,25 +3661,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G75">
         <v>150</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3631,25 +3688,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G76">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -3658,22 +3715,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="H77">
         <v>10</v>
@@ -3685,25 +3742,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F78">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G78">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3712,24 +3769,132 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>20</v>
+      </c>
+      <c r="G79">
+        <v>150</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>20</v>
+      </c>
+      <c r="G80">
+        <v>150</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>30</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>30</v>
+      </c>
+      <c r="G82">
+        <v>300</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>102</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C83" t="s">
         <v>103</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D83" t="s">
         <v>104</v>
       </c>
-      <c r="E79">
+      <c r="E83">
         <v>50</v>
       </c>
-      <c r="F79">
+      <c r="F83">
         <v>100</v>
       </c>
-      <c r="G79">
+      <c r="G83">
         <v>300</v>
       </c>
-      <c r="H79">
+      <c r="H83">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393649ED-4EEF-4833-82A3-070F87FB18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CE8F7-6C1D-41C3-B534-02F5E4D80E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="1815" windowWidth="13035" windowHeight="11760" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4770" yWindow="1770" windowWidth="21600" windowHeight="12930" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="248">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -67,15 +67,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ブルーベリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Strawberry</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ストロベリー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -215,10 +207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バナナ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Pear</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -259,13 +247,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>星の</t>
-    <rPh sb="0" eb="1">
-      <t>ホシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フレーク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -282,10 +263,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JewerySuger</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -314,10 +291,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピーチ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Pineapple</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -330,27 +303,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>さくらんぼ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ヨーグルト</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Yoguruto</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミックスカラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミックスチョコ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キラキラ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -414,19 +371,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラベンダー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>slot_getgirllove</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Lemon</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レモン</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -479,10 +428,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>バニラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Premium</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -640,16 +585,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マルサラ酒入り</t>
-    <rPh sb="4" eb="5">
-      <t>シュ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クリームチーズ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -670,14 +605,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ラズベリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クランベリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Cranberry</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -694,31 +621,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カシス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ピンクオレンジ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>グレープ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アップル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ミラクルタピオカ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ローズ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -816,13 +723,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>瑞々しい</t>
-    <rPh sb="0" eb="2">
-      <t>ミズミズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>さくらんぼ風味</t>
     <rPh sb="5" eb="7">
       <t>フウミ</t>
@@ -886,13 +786,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゆめの香り</t>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ばらの香り</t>
     <rPh sb="3" eb="4">
       <t>カオ</t>
@@ -900,13 +793,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>リキュール風味</t>
-    <rPh sb="5" eb="7">
-      <t>フウミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アールグレイ風味</t>
     <rPh sb="6" eb="8">
       <t>フウミ</t>
@@ -950,10 +836,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カシスの香り</t>
     <rPh sb="4" eb="5">
       <t>カオ</t>
@@ -975,13 +857,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マスカット風味</t>
-    <rPh sb="5" eb="7">
-      <t>フウミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>紫陽花の香り</t>
     <rPh sb="0" eb="3">
       <t>アジサイ</t>
@@ -992,13 +867,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>紫陽花</t>
-    <rPh sb="0" eb="3">
-      <t>アジサイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Hydrangea</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1086,16 +954,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>儚げな紫</t>
-    <rPh sb="0" eb="1">
-      <t>ハカナ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ムラサキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OrangeIceCream</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1212,33 +1070,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひんやりブルーベリーアイス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラズベリーアイス</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ひんやりラズベリーアイス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RaspberryIceCream</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ブルーハワイ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>青空の輝きブルーハワイ</t>
-    <rPh sb="0" eb="2">
-      <t>アオゾラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カガヤ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1257,7 +1097,245 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジャスミン</t>
+    <t>ぶどう香る</t>
+    <rPh sb="3" eb="4">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジ香る</t>
+    <rPh sb="4" eb="5">
+      <t>カオル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねっとりとした</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乙女な</t>
+    <rPh sb="0" eb="2">
+      <t>オトメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>癒される</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>芳醇な</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トロピカーナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すっぱい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェリーな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリーミィ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大人な</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DryGrape</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしぶどう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目に優しい</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>純潔の</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>懐かしい香り</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ももの爽やかさ</t>
+    <rPh sb="3" eb="4">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爽やかなあまみ</t>
+    <rPh sb="0" eb="1">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バニラな</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きらめく星の</t>
+    <rPh sb="4" eb="5">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほしの粉</t>
+    <rPh sb="3" eb="4">
+      <t>コナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青空の輝き</t>
+    <rPh sb="0" eb="2">
+      <t>アオゾラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりラズベ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひんやりブルベ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チョコレッティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらの花びら</t>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キラキラジュエリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色とりどり</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスつぶチョコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダーの癒し</t>
+    <rPh sb="6" eb="7">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淡いマスカット風味</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雨の香り</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儚げな</t>
+    <rPh sb="0" eb="1">
+      <t>ハカナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高貴な</t>
+    <rPh sb="0" eb="2">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>王妃の香り</t>
+    <rPh sb="0" eb="2">
+      <t>オウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルサラ酒入り</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>琥珀色の</t>
+    <rPh sb="0" eb="2">
+      <t>コハク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1641,11 +1719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1672,31 +1750,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A83" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A84" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1720,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1744,13 +1822,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1774,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1798,22 +1876,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
       <c r="G6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>6</v>
@@ -1825,25 +1903,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>136</v>
       </c>
-      <c r="C7" t="s">
-        <v>158</v>
-      </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>15</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1852,13 +1930,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1870,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1879,25 +1957,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1906,25 +1984,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1933,25 +2011,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1960,25 +2038,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>30</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1987,25 +2065,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>30</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2014,13 +2092,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>225</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2029,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2041,25 +2119,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2068,25 +2146,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2095,25 +2173,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="E17">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>50</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2122,19 +2200,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>50</v>
@@ -2149,25 +2227,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
         <v>5</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2176,25 +2254,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2203,19 +2281,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <v>150</v>
@@ -2230,25 +2308,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="E22">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H22">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2257,25 +2335,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="F23">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>-50</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2284,25 +2362,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="G24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2311,25 +2389,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
         <v>8</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2338,13 +2416,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2353,7 +2431,7 @@
         <v>8</v>
       </c>
       <c r="G26">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H26">
         <v>5</v>
@@ -2365,22 +2443,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -2392,25 +2470,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G28">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2419,25 +2497,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
         <v>10</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2446,25 +2524,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>777</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -2473,25 +2551,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>150</v>
+        <v>777</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -2500,25 +2578,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G32">
         <v>150</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2527,25 +2605,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -2554,25 +2632,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -2581,22 +2659,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G35">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H35">
         <v>5</v>
@@ -2608,19 +2686,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>120</v>
@@ -2635,25 +2713,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="C37" t="s">
-        <v>111</v>
-      </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>120</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -2662,19 +2740,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>120</v>
@@ -2689,19 +2767,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G39">
         <v>120</v>
@@ -2716,13 +2794,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2743,13 +2821,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2770,13 +2848,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2797,13 +2875,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2824,13 +2902,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2851,13 +2929,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="D45" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2878,13 +2956,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2905,13 +2983,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2932,13 +3010,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2959,22 +3037,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2986,25 +3064,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G50">
         <v>50</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -3013,25 +3091,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>12</v>
+      </c>
+      <c r="G51">
         <v>50</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>20</v>
-      </c>
-      <c r="G51">
-        <v>120</v>
-      </c>
       <c r="H51">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -3040,22 +3118,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
         <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>30</v>
-      </c>
-      <c r="G52">
-        <v>240</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -3067,13 +3145,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3094,13 +3172,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3121,13 +3199,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3148,13 +3226,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3175,13 +3253,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3202,13 +3280,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
         <v>233</v>
-      </c>
-      <c r="D58" t="s">
-        <v>234</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3229,13 +3307,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3256,25 +3334,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G60">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3283,25 +3361,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3310,13 +3388,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3328,7 +3406,7 @@
         <v>150</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3337,16 +3415,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E63">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>10</v>
@@ -3355,7 +3433,7 @@
         <v>150</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3364,16 +3442,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F64">
         <v>10</v>
@@ -3382,7 +3460,7 @@
         <v>150</v>
       </c>
       <c r="H64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3391,25 +3469,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G65">
         <v>150</v>
       </c>
       <c r="H65">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3418,25 +3496,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66">
         <v>150</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3445,19 +3523,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67">
         <v>150</v>
@@ -3472,19 +3550,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G68">
         <v>150</v>
@@ -3499,19 +3577,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G69">
         <v>150</v>
@@ -3526,25 +3604,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3553,22 +3631,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G71">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H71">
         <v>7</v>
@@ -3580,13 +3658,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3607,22 +3685,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G73">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H73">
         <v>7</v>
@@ -3634,25 +3712,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="E74">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H74">
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3661,25 +3739,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G75">
         <v>150</v>
       </c>
       <c r="H75">
-        <v>15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3688,25 +3766,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G76">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -3715,25 +3793,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
         <v>30</v>
       </c>
-      <c r="G77">
-        <v>300</v>
-      </c>
       <c r="H77">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -3742,25 +3820,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="E78">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G78">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3769,16 +3847,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D79" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F79">
         <v>20</v>
@@ -3796,13 +3874,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3823,25 +3901,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -3850,25 +3928,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
         <v>30</v>
       </c>
-      <c r="G82">
-        <v>300</v>
-      </c>
       <c r="H82">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -3877,24 +3955,51 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G83">
         <v>300</v>
       </c>
       <c r="H83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <v>100</v>
+      </c>
+      <c r="G84">
+        <v>300</v>
+      </c>
+      <c r="H84">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CE8F7-6C1D-41C3-B534-02F5E4D80E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C35819-5413-48C7-8EF8-D43B6EAF50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="1770" windowWidth="21600" windowHeight="12930" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="33705" yWindow="1140" windowWidth="17775" windowHeight="13185" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="251">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>クリスタル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>フレーク</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -412,10 +408,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>さくらのせ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アイストッピング</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -503,18 +495,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジュエリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Mカラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Mチョコ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>銀つぶ</t>
     <rPh sb="0" eb="1">
       <t>ギン</t>
@@ -536,27 +516,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>抹茶風味</t>
-    <rPh sb="0" eb="2">
-      <t>マッチャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フウミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミラクルタピ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カラフル砂糖</t>
-    <rPh sb="4" eb="6">
-      <t>サトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ピンクシュガー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1097,20 +1056,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ぶどう香る</t>
-    <rPh sb="3" eb="4">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジ香る</t>
-    <rPh sb="4" eb="5">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ねっとりとした</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1144,10 +1089,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>チェリーな</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クリーミィ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1167,16 +1108,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>目に優しい</t>
-    <rPh sb="0" eb="1">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヤサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>純潔の</t>
     <rPh sb="0" eb="2">
       <t>ジュンケツ</t>
@@ -1194,24 +1125,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ももの爽やかさ</t>
-    <rPh sb="3" eb="4">
-      <t>サワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>爽やかなあまみ</t>
-    <rPh sb="0" eb="1">
-      <t>サワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バニラな</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>きらめく星の</t>
     <rPh sb="4" eb="5">
       <t>ホシ</t>
@@ -1255,25 +1168,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>キラハート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キラキラジュエリー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>色とりどり</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ミックスつぶチョコ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラベンダーの癒し</t>
     <rPh sb="6" eb="7">
       <t>イヤ</t>
@@ -1291,16 +1185,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>雨の香り</t>
-    <rPh sb="0" eb="1">
-      <t>アメ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>儚げな</t>
     <rPh sb="0" eb="1">
       <t>ハカナ</t>
@@ -1308,23 +1192,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>高貴な</t>
-    <rPh sb="0" eb="2">
-      <t>コウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>王妃の香り</t>
-    <rPh sb="0" eb="2">
-      <t>オウヒ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>マルサラ酒入り</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1336,6 +1203,151 @@
     <rPh sb="2" eb="3">
       <t>イロ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フレッシュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピーチフル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初々しい</t>
+    <rPh sb="0" eb="2">
+      <t>ウイウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>爽やかな</t>
+    <rPh sb="0" eb="1">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魅惑の</t>
+    <rPh sb="0" eb="2">
+      <t>ミワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ざらざら</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココア風味</t>
+    <rPh sb="3" eb="5">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>和風の</t>
+    <rPh sb="0" eb="2">
+      <t>ワフウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バニラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくら舞い散る</t>
+    <rPh sb="3" eb="4">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夏雨の</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白く高貴な</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスタルシュガ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>つぶチョコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラフル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>七色の</t>
+    <rPh sb="0" eb="2">
+      <t>ナナイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスチョコ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラフルつぶつぶ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミックスカラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュエリーシュガ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宝石あふれる</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雪結晶の</t>
+    <rPh sb="0" eb="1">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケッショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブルーベリー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1723,7 +1735,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1750,16 +1762,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1798,10 +1810,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1825,10 +1837,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1852,10 +1864,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1876,13 +1888,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1906,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1930,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1957,13 +1969,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1984,13 +1996,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2011,13 +2023,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2041,10 +2053,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2068,10 +2080,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2095,10 +2107,10 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2119,13 +2131,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2146,13 +2158,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2173,13 +2185,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2200,13 +2212,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E18">
         <v>-7</v>
@@ -2227,13 +2239,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2257,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
@@ -2281,13 +2293,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2308,13 +2320,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2338,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -2362,13 +2374,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>-50</v>
@@ -2392,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -2419,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -2446,7 +2458,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -2473,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -2500,7 +2512,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2524,7 +2536,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2554,10 +2566,10 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2581,10 +2593,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2605,13 +2617,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2638,7 +2650,7 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2665,7 +2677,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2689,10 +2701,10 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2743,10 +2755,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2767,13 +2779,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2794,13 +2806,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
         <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2821,13 +2833,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2848,13 +2860,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D42" t="s">
         <v>67</v>
-      </c>
-      <c r="C42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D42" t="s">
-        <v>68</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2875,13 +2887,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2902,13 +2914,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2929,13 +2941,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2956,13 +2968,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2983,13 +2995,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
         <v>70</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3010,13 +3022,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3037,13 +3049,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3064,13 +3076,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3091,13 +3103,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3121,10 +3133,10 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D52" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3148,10 +3160,10 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3172,13 +3184,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" t="s">
         <v>181</v>
-      </c>
-      <c r="C54" t="s">
-        <v>185</v>
-      </c>
-      <c r="D54" t="s">
-        <v>189</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3199,13 +3211,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" t="s">
         <v>182</v>
-      </c>
-      <c r="C55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" t="s">
-        <v>190</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3226,13 +3238,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" t="s">
         <v>183</v>
-      </c>
-      <c r="C56" t="s">
-        <v>187</v>
-      </c>
-      <c r="D56" t="s">
-        <v>191</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3253,13 +3265,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" t="s">
         <v>184</v>
-      </c>
-      <c r="C57" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" t="s">
-        <v>192</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3280,13 +3292,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3307,13 +3319,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3334,13 +3346,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3364,10 +3376,10 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3394,7 +3406,7 @@
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3418,10 +3430,10 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" t="s">
         <v>235</v>
-      </c>
-      <c r="D63" t="s">
-        <v>83</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3442,13 +3454,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>-10</v>
@@ -3469,13 +3481,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
         <v>48</v>
-      </c>
-      <c r="C65" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" t="s">
-        <v>49</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3496,13 +3508,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3523,13 +3535,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3550,13 +3562,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3577,13 +3589,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>244</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3604,13 +3616,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3631,13 +3643,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3658,13 +3670,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3685,13 +3697,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3712,13 +3724,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3739,13 +3751,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E75">
         <v>-30</v>
@@ -3766,13 +3778,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3793,13 +3805,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
         <v>79</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>80</v>
-      </c>
-      <c r="D77" t="s">
-        <v>81</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3820,13 +3832,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3847,13 +3859,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="E79">
         <v>-10</v>
@@ -3874,13 +3886,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3901,13 +3913,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3928,13 +3940,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3955,13 +3967,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3982,13 +3994,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
         <v>89</v>
-      </c>
-      <c r="C84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" t="s">
-        <v>91</v>
       </c>
       <c r="E84">
         <v>50</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C35819-5413-48C7-8EF8-D43B6EAF50C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2A0EB-7DA5-456E-816E-6BEDD22CD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33705" yWindow="1140" windowWidth="17775" windowHeight="13185" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="33690" yWindow="1395" windowWidth="17775" windowHeight="13185" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1067,13 +1067,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>癒される</t>
-    <rPh sb="0" eb="1">
-      <t>イヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>芳醇な</t>
     <rPh sb="0" eb="2">
       <t>ホウジュン</t>
@@ -1214,13 +1207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>初々しい</t>
-    <rPh sb="0" eb="2">
-      <t>ウイウイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>爽やかな</t>
     <rPh sb="0" eb="1">
       <t>サワ</t>
@@ -1228,13 +1214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>魅惑の</t>
-    <rPh sb="0" eb="2">
-      <t>ミワク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ざらざら</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1348,6 +1327,18 @@
   </si>
   <si>
     <t>ブルーベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レーズン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>さくらんぼ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クランベリー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1735,7 +1726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1813,7 +1804,7 @@
         <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1867,7 +1858,7 @@
         <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1888,13 +1879,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
         <v>210</v>
       </c>
-      <c r="C6" t="s">
-        <v>211</v>
-      </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1921,7 +1912,7 @@
         <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1948,7 +1939,7 @@
         <v>129</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1975,7 +1966,7 @@
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2110,7 +2101,7 @@
         <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2137,7 +2128,7 @@
         <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2164,7 +2155,7 @@
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2191,7 +2182,7 @@
         <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2218,7 +2209,7 @@
         <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18">
         <v>-7</v>
@@ -2245,7 +2236,7 @@
         <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2299,7 +2290,7 @@
         <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2326,7 +2317,7 @@
         <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2569,7 +2560,7 @@
         <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2593,10 +2584,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2623,7 +2614,7 @@
         <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2650,7 +2641,7 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2677,7 +2668,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2704,7 +2695,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3109,7 +3100,7 @@
         <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3133,10 +3124,10 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3298,7 +3289,7 @@
         <v>195</v>
       </c>
       <c r="D58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3325,7 +3316,7 @@
         <v>196</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3352,7 +3343,7 @@
         <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3406,7 +3397,7 @@
         <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3430,10 +3421,10 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3514,7 +3505,7 @@
         <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3538,10 +3529,10 @@
         <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3565,10 +3556,10 @@
         <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3592,10 +3583,10 @@
         <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3622,7 +3613,7 @@
         <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3649,7 +3640,7 @@
         <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3676,7 +3667,7 @@
         <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3703,7 +3694,7 @@
         <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3730,7 +3721,7 @@
         <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3838,7 +3829,7 @@
         <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3862,10 +3853,10 @@
         <v>109</v>
       </c>
       <c r="C79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" t="s">
         <v>224</v>
-      </c>
-      <c r="D79" t="s">
-        <v>225</v>
       </c>
       <c r="E79">
         <v>-10</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA2A0EB-7DA5-456E-816E-6BEDD22CD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40751E8-4C2B-4AD8-A6D4-E11FE2BB29DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33690" yWindow="1395" windowWidth="17775" windowHeight="13185" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3600" yWindow="1215" windowWidth="16470" windowHeight="13140" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,10 +219,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ナッツトッピング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ししゃものせ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1060,13 +1056,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>乙女な</t>
-    <rPh sb="0" eb="2">
-      <t>オトメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>芳醇な</t>
     <rPh sb="0" eb="2">
       <t>ホウジュン</t>
@@ -1101,13 +1090,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>純潔の</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンケツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>懐かしい香り</t>
     <rPh sb="0" eb="1">
       <t>ナツ</t>
@@ -1199,14 +1181,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フレッシュ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ピーチフル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>爽やかな</t>
     <rPh sb="0" eb="1">
       <t>サワ</t>
@@ -1339,6 +1313,29 @@
   </si>
   <si>
     <t>クランベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラズベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストロベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナッツ入り</t>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1726,7 +1723,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1753,16 +1750,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1801,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1828,10 +1825,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1855,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1879,13 +1876,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1909,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1933,13 +1930,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1960,13 +1957,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1987,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2014,13 +2011,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2044,10 +2041,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2071,10 +2068,10 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2098,10 +2095,10 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2122,13 +2119,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2149,13 +2146,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2176,13 +2173,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2203,13 +2200,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E18">
         <v>-7</v>
@@ -2230,13 +2227,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2260,10 +2257,10 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2284,13 +2281,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2311,13 +2308,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2341,10 +2338,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>-30</v>
@@ -2365,13 +2362,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="s">
         <v>121</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>122</v>
       </c>
       <c r="E24">
         <v>-50</v>
@@ -2395,7 +2392,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -2422,10 +2419,10 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2449,7 +2446,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -2476,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -2503,7 +2500,7 @@
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2527,7 +2524,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -2557,10 +2554,10 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2584,10 +2581,10 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2608,13 +2605,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2641,7 +2638,7 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2668,7 +2665,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2695,7 +2692,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2746,10 +2743,10 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2770,13 +2767,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2797,13 +2794,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" t="s">
         <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2824,13 +2821,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2851,13 +2848,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
         <v>66</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2878,13 +2875,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2905,13 +2902,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" t="s">
         <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2932,13 +2929,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
         <v>164</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>165</v>
-      </c>
-      <c r="D45" t="s">
-        <v>166</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2959,13 +2956,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" t="s">
         <v>167</v>
-      </c>
-      <c r="D46" t="s">
-        <v>168</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2986,13 +2983,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
         <v>69</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" t="s">
-        <v>70</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3013,13 +3010,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
         <v>191</v>
-      </c>
-      <c r="C48" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" t="s">
-        <v>192</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3040,13 +3037,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3067,13 +3064,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3094,13 +3091,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3124,10 +3121,10 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3151,10 +3148,10 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3175,13 +3172,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3202,13 +3199,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3229,13 +3226,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3256,13 +3253,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3283,13 +3280,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
         <v>194</v>
       </c>
-      <c r="C58" t="s">
-        <v>195</v>
-      </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3310,13 +3307,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3337,13 +3334,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3367,10 +3364,10 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3391,13 +3388,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" t="s">
         <v>42</v>
       </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
       <c r="D62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3418,13 +3415,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3445,13 +3442,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="C64" t="s">
-        <v>91</v>
-      </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <v>-10</v>
@@ -3472,13 +3469,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
         <v>47</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" t="s">
-        <v>48</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3499,13 +3496,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3526,13 +3523,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3553,13 +3550,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3580,13 +3577,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D69" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3607,13 +3604,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3634,13 +3631,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
         <v>152</v>
       </c>
-      <c r="C71" t="s">
-        <v>153</v>
-      </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3661,13 +3658,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3688,13 +3685,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" t="s">
         <v>200</v>
       </c>
-      <c r="C73" t="s">
-        <v>201</v>
-      </c>
       <c r="D73" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3715,13 +3712,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3742,13 +3739,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
         <v>76</v>
       </c>
-      <c r="C75" t="s">
-        <v>77</v>
-      </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>-30</v>
@@ -3769,13 +3766,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="s">
         <v>106</v>
       </c>
-      <c r="C76" t="s">
-        <v>107</v>
-      </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3796,13 +3793,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
         <v>78</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>80</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3823,13 +3820,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3850,13 +3847,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E79">
         <v>-10</v>
@@ -3877,13 +3874,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" t="s">
         <v>185</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>186</v>
-      </c>
-      <c r="D80" t="s">
-        <v>187</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3904,13 +3901,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" t="s">
         <v>188</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>189</v>
-      </c>
-      <c r="D81" t="s">
-        <v>190</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3931,13 +3928,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" t="s">
         <v>92</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" t="s">
-        <v>93</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3958,13 +3955,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
         <v>85</v>
       </c>
-      <c r="C83" t="s">
-        <v>86</v>
-      </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3985,13 +3982,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
         <v>87</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>88</v>
-      </c>
-      <c r="D84" t="s">
-        <v>89</v>
       </c>
       <c r="E84">
         <v>50</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40751E8-4C2B-4AD8-A6D4-E11FE2BB29DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C793C25-E841-4CCB-B123-D4E376687DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1215" windowWidth="16470" windowHeight="13140" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3540" yWindow="1815" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="260">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1283,13 +1283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>宝石あふれる</t>
-    <rPh sb="0" eb="2">
-      <t>ホウセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>雪結晶の</t>
     <rPh sb="0" eb="1">
       <t>ユキ</t>
@@ -1335,6 +1328,64 @@
     <t>ナッツ入り</t>
     <rPh sb="3" eb="4">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グリーンアップル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GreenApple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青りんごの香り</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KohakuCandy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>琥珀糖</t>
+    <rPh sb="0" eb="2">
+      <t>コハク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宝石の</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジュエリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DoragonCandy</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ペロペロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>竜のペロペロ</t>
+    <rPh sb="0" eb="1">
+      <t>リュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1719,11 +1770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1764,7 +1815,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A84" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A87" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1882,7 +1933,7 @@
         <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1909,7 +1960,7 @@
         <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1936,7 +1987,7 @@
         <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1963,7 +2014,7 @@
         <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2044,7 +2095,7 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2125,7 +2176,7 @@
         <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2179,7 +2230,7 @@
         <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2233,7 +2284,7 @@
         <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2254,10 +2305,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
         <v>250</v>
@@ -2266,13 +2317,13 @@
         <v>0</v>
       </c>
       <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
         <v>5</v>
-      </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2281,25 +2332,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2308,19 +2359,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <v>150</v>
@@ -2335,25 +2386,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="E23">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>-10</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="H23">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2362,25 +2413,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="F24">
-        <v>-30</v>
+        <v>-10</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>-50</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2389,25 +2440,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>-30</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2416,25 +2467,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
         <v>8</v>
-      </c>
-      <c r="G26">
-        <v>50</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2443,13 +2494,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2458,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -2470,22 +2521,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -2497,25 +2548,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2524,25 +2575,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
         <v>10</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -2551,25 +2602,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>777</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -2578,25 +2629,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>150</v>
+        <v>777</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2605,25 +2656,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33">
         <v>150</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -2632,25 +2683,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -2659,25 +2710,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -2686,25 +2737,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>7</v>
-      </c>
       <c r="G36">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2713,25 +2764,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>259</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G37">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -2740,25 +2791,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>224</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>50</v>
+      </c>
+      <c r="H38">
         <v>5</v>
-      </c>
-      <c r="G38">
-        <v>120</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2767,25 +2818,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>120</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -2794,25 +2845,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>120</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -2821,13 +2872,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2848,19 +2899,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G42">
         <v>120</v>
@@ -2875,13 +2926,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2902,13 +2953,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2929,13 +2980,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2956,13 +3007,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2983,13 +3034,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3010,13 +3061,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3037,13 +3088,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3064,22 +3115,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H50">
         <v>10</v>
@@ -3091,25 +3142,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H51">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -3118,25 +3169,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G52">
         <v>120</v>
       </c>
       <c r="H52">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -3145,25 +3196,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G53">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="H53">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -3172,25 +3223,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G54">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="H54">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -3199,22 +3250,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G55">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H55">
         <v>15</v>
@@ -3226,13 +3277,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3253,13 +3304,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3280,13 +3331,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3307,13 +3358,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3334,13 +3385,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3361,25 +3412,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="D61" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G61">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3388,22 +3439,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G62">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H62">
         <v>15</v>
@@ -3415,25 +3466,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G63">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3442,25 +3493,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E64">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3469,13 +3520,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3487,7 +3538,7 @@
         <v>150</v>
       </c>
       <c r="H65">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3496,25 +3547,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G66">
         <v>150</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3523,25 +3574,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C67" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F67">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>150</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3550,19 +3601,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>150</v>
@@ -3577,25 +3628,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G69">
         <v>150</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3604,19 +3655,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="D70" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G70">
         <v>150</v>
@@ -3631,25 +3682,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G71">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H71">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3658,25 +3709,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H72">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3685,25 +3736,25 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -3712,22 +3763,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G74">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H74">
         <v>7</v>
@@ -3739,25 +3790,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="E75">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="G75">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H75">
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3766,25 +3817,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G76">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H76">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -3793,25 +3844,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -3820,25 +3871,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D78" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F78">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="G78">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3847,25 +3898,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="D79" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="E79">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G79">
         <v>150</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -3874,25 +3925,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -3901,25 +3952,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G81">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -3928,25 +3979,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -3955,25 +4006,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G83">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -3982,24 +4033,105 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84">
+        <v>150</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" t="s">
+        <v>92</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>30</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>300</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C87" t="s">
         <v>87</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="E84">
+      <c r="E87">
         <v>50</v>
       </c>
-      <c r="F84">
+      <c r="F87">
         <v>100</v>
       </c>
-      <c r="G84">
+      <c r="G87">
         <v>300</v>
       </c>
-      <c r="H84">
+      <c r="H87">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C793C25-E841-4CCB-B123-D4E376687DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC3E35C-A1DA-4D2B-A0B2-579FD2920EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1815" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3120" yWindow="2430" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="262">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1387,6 +1387,14 @@
     <rPh sb="0" eb="1">
       <t>リュウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MintIceCream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミントアイス</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1770,11 +1778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1815,7 +1823,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A87" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A88" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3466,13 +3474,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3493,25 +3501,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3520,25 +3528,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3547,13 +3555,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3565,7 +3573,7 @@
         <v>150</v>
       </c>
       <c r="H66">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3574,16 +3582,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="E67">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -3592,7 +3600,7 @@
         <v>150</v>
       </c>
       <c r="H67">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3601,16 +3609,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D68" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -3619,7 +3627,7 @@
         <v>150</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3628,25 +3636,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>150</v>
       </c>
       <c r="H69">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3655,25 +3663,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70">
         <v>150</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3682,19 +3690,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71">
         <v>150</v>
@@ -3709,19 +3717,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G72">
         <v>150</v>
@@ -3736,19 +3744,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G73">
         <v>150</v>
@@ -3763,25 +3771,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H74">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3790,22 +3798,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H75">
         <v>7</v>
@@ -3817,13 +3825,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3844,22 +3852,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G77">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H77">
         <v>7</v>
@@ -3871,25 +3879,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="E78">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="G78">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H78">
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3898,25 +3906,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G79">
         <v>150</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -3925,25 +3933,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D80" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G80">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -3952,25 +3960,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
         <v>30</v>
       </c>
-      <c r="G81">
-        <v>300</v>
-      </c>
       <c r="H81">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -3979,25 +3987,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E82">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G82">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4006,16 +4014,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F83">
         <v>20</v>
@@ -4033,13 +4041,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4060,25 +4068,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G85">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4087,25 +4095,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
         <v>30</v>
       </c>
-      <c r="G86">
-        <v>300</v>
-      </c>
       <c r="H86">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4114,24 +4122,51 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G87">
         <v>300</v>
       </c>
       <c r="H87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>88</v>
+      </c>
+      <c r="E88">
+        <v>50</v>
+      </c>
+      <c r="F88">
+        <v>100</v>
+      </c>
+      <c r="G88">
+        <v>300</v>
+      </c>
+      <c r="H88">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC3E35C-A1DA-4D2B-A0B2-579FD2920EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F399EF4-BA12-4941-83ED-36613C1BDA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3120" yWindow="2430" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2925" yWindow="1485" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1781,8 +1781,8 @@
   <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2763,7 +2763,7 @@
         <v>60</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2790,7 +2790,7 @@
         <v>60</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F399EF4-BA12-4941-83ED-36613C1BDA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FDCDC-4D19-48B1-8CC6-D0DA50DCBE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1485" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1354,16 +1354,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>琥珀糖</t>
-    <rPh sb="0" eb="2">
-      <t>コハク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>宝石の</t>
     <rPh sb="0" eb="2">
       <t>ホウセキ</t>
@@ -1395,6 +1385,25 @@
   </si>
   <si>
     <t>ミントアイス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェムボンボン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamCafeaulait</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カフェクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カフェオレホイップ添え</t>
+    <rPh sb="9" eb="10">
+      <t>ソ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1778,11 +1787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1823,7 +1832,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A88" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A89" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2748,10 +2757,10 @@
         <v>253</v>
       </c>
       <c r="C36" t="s">
+        <v>261</v>
+      </c>
+      <c r="D36" t="s">
         <v>254</v>
-      </c>
-      <c r="D36" t="s">
-        <v>255</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2772,13 +2781,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" t="s">
         <v>257</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>258</v>
-      </c>
-      <c r="D37" t="s">
-        <v>259</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -3204,22 +3213,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>263</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -3231,25 +3240,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>50</v>
       </c>
       <c r="H54">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -3258,25 +3267,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="D55" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G55">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H55">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3285,22 +3294,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H56">
         <v>15</v>
@@ -3312,13 +3321,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3339,13 +3348,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3366,13 +3375,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3393,13 +3402,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3420,13 +3429,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3447,13 +3456,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3474,13 +3483,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3501,13 +3510,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3528,25 +3537,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G65">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3555,25 +3564,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H66">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3582,13 +3591,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3600,7 +3609,7 @@
         <v>150</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3609,16 +3618,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="E68">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -3627,7 +3636,7 @@
         <v>150</v>
       </c>
       <c r="H68">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3636,16 +3645,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -3654,7 +3663,7 @@
         <v>150</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3663,25 +3672,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>150</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3690,25 +3699,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>239</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G71">
         <v>150</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3717,19 +3726,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72">
         <v>150</v>
@@ -3744,19 +3753,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G73">
         <v>150</v>
@@ -3771,19 +3780,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G74">
         <v>150</v>
@@ -3798,25 +3807,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3825,22 +3834,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G76">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H76">
         <v>7</v>
@@ -3852,13 +3861,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3879,22 +3888,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G78">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H78">
         <v>7</v>
@@ -3906,25 +3915,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="E79">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="G79">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H79">
-        <v>-10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -3933,25 +3942,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F80">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G80">
         <v>150</v>
       </c>
       <c r="H80">
-        <v>15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -3960,25 +3969,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G81">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -3987,25 +3996,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
         <v>30</v>
       </c>
-      <c r="G82">
-        <v>300</v>
-      </c>
       <c r="H82">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4014,25 +4023,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E83">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G83">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4041,16 +4050,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D84" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F84">
         <v>20</v>
@@ -4068,13 +4077,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4095,25 +4104,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="D86" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H86">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4122,25 +4131,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
         <v>30</v>
       </c>
-      <c r="G87">
-        <v>300</v>
-      </c>
       <c r="H87">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4149,24 +4158,51 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>300</v>
       </c>
       <c r="H88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <v>50</v>
+      </c>
+      <c r="F89">
+        <v>100</v>
+      </c>
+      <c r="G89">
+        <v>300</v>
+      </c>
+      <c r="H89">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FDCDC-4D19-48B1-8CC6-D0DA50DCBE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874063A-97C7-46E2-ADD2-FAC423FE8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1790,8 +1790,8 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G32">
         <v>777</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>60</v>
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G55">
         <v>50</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>240</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G58">
         <v>240</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G59">
         <v>240</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G60">
         <v>240</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>240</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>240</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>240</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G64">
         <v>240</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6874063A-97C7-46E2-ADD2-FAC423FE8F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4B012-7CC5-459D-999C-7575CB8370CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3120" yWindow="2430" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1790,8 +1790,8 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G81">
         <v>150</v>
@@ -4149,7 +4149,7 @@
         <v>30</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4176,7 +4176,7 @@
         <v>300</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B4B012-7CC5-459D-999C-7575CB8370CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7335006-6439-4624-A95F-737224DF6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2430" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="268">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1404,6 +1404,24 @@
     <rPh sb="9" eb="10">
       <t>ソ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな香りの</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな香り</t>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Murasakinoko</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1787,11 +1805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1832,7 +1850,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A89" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A90" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3969,25 +3987,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F81">
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="G81">
         <v>150</v>
       </c>
       <c r="H81">
-        <v>15</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -3996,25 +4014,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G82">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4023,25 +4041,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
         <v>30</v>
       </c>
-      <c r="G83">
-        <v>300</v>
-      </c>
       <c r="H83">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4050,25 +4068,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E84">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G84">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4077,16 +4095,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="D85" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F85">
         <v>20</v>
@@ -4104,13 +4122,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4131,25 +4149,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="D87" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4158,25 +4176,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
         <v>30</v>
       </c>
-      <c r="G88">
-        <v>300</v>
-      </c>
       <c r="H88">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4185,24 +4203,51 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G89">
         <v>300</v>
       </c>
       <c r="H89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>50</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+      <c r="G90">
+        <v>300</v>
+      </c>
+      <c r="H90">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7335006-6439-4624-A95F-737224DF6CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822935CF-5C07-4816-954B-468B1673F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
@@ -1407,13 +1407,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>へんな香りの</t>
-    <rPh sb="3" eb="4">
-      <t>カオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>へんな香り</t>
     <rPh sb="3" eb="4">
       <t>カオ</t>
@@ -1422,6 +1415,10 @@
   </si>
   <si>
     <t>Murasakinoko</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>へんな香りの</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1808,8 +1805,8 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3987,13 +3984,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C81" t="s">
         <v>265</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E81">
         <v>-5</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822935CF-5C07-4816-954B-468B1673F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEAFB6-D03C-44C8-BE90-8764385292D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1245" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3195" yWindow="960" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1805,8 +1805,8 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2079,13 +2079,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>15</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2322,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -2349,13 +2349,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G26">
         <v>20</v>
@@ -2787,7 +2787,7 @@
         <v>60</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2814,7 +2814,7 @@
         <v>60</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -2841,7 +2841,7 @@
         <v>50</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -3354,7 +3354,7 @@
         <v>240</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3570,7 +3570,7 @@
         <v>240</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3894,7 +3894,7 @@
         <v>350</v>
       </c>
       <c r="H77">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -3921,7 +3921,7 @@
         <v>350</v>
       </c>
       <c r="H78">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3948,7 +3948,7 @@
         <v>500</v>
       </c>
       <c r="H79">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4104,7 +4104,7 @@
         <v>-10</v>
       </c>
       <c r="F85">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G85">
         <v>150</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CEAFB6-D03C-44C8-BE90-8764385292D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E20B33-8507-4541-B29E-9585F5D172C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="960" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3480" yWindow="1365" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1805,8 +1805,8 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2082,7 +2082,7 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -2787,7 +2787,7 @@
         <v>60</v>
       </c>
       <c r="H36">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2814,7 +2814,7 @@
         <v>60</v>
       </c>
       <c r="H37">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3948,7 +3948,7 @@
         <v>500</v>
       </c>
       <c r="H79">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4002,7 +4002,7 @@
         <v>150</v>
       </c>
       <c r="H81">
-        <v>-5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4029,7 +4029,7 @@
         <v>150</v>
       </c>
       <c r="H82">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4050,10 +4050,10 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G83">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -4218,7 +4218,7 @@
         <v>300</v>
       </c>
       <c r="H89">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E20B33-8507-4541-B29E-9585F5D172C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E81BC1-B403-4285-8D04-5A53164B63A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1365" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="270">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ココア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>MachaPowder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1419,6 +1415,21 @@
   </si>
   <si>
     <t>へんな香りの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー風味</t>
+    <rPh sb="4" eb="6">
+      <t>フウミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Coffee</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コーヒー風味</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1802,11 +1813,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1833,21 +1844,21 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A90" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A91" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1881,10 +1892,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1908,10 +1919,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1935,10 +1946,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1959,13 +1970,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" t="s">
         <v>207</v>
       </c>
-      <c r="C6" t="s">
-        <v>208</v>
-      </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1989,10 +2000,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2013,13 +2024,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2040,13 +2051,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2067,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2094,13 +2105,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2124,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2148,13 +2159,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2175,13 +2186,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2202,13 +2213,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2229,13 +2240,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2256,13 +2267,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2283,13 +2294,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E18">
         <v>-7</v>
@@ -2310,13 +2321,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2337,13 +2348,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" t="s">
         <v>251</v>
       </c>
-      <c r="C20" t="s">
-        <v>252</v>
-      </c>
       <c r="D20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2367,10 +2378,10 @@
         <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2391,13 +2402,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2418,13 +2429,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2448,10 +2459,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>-30</v>
@@ -2472,13 +2483,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
         <v>120</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>121</v>
       </c>
       <c r="E25">
         <v>-50</v>
@@ -2502,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2529,10 +2540,10 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2556,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -2583,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -2610,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -2634,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -2664,10 +2675,10 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2691,10 +2702,10 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2715,13 +2726,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
         <v>53</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2748,7 +2759,7 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2769,13 +2780,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" t="s">
         <v>253</v>
-      </c>
-      <c r="C36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D36" t="s">
-        <v>254</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2796,13 +2807,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" t="s">
         <v>256</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>257</v>
-      </c>
-      <c r="D37" t="s">
-        <v>258</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2823,13 +2834,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2841,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="H38">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2850,25 +2861,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D39" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G39">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -2877,19 +2888,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40">
         <v>120</v>
@@ -2904,25 +2915,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>120</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -2931,19 +2942,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>120</v>
@@ -2958,25 +2969,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>120</v>
       </c>
       <c r="H43">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -2985,13 +2996,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3012,13 +3023,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3039,13 +3050,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3066,13 +3077,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3093,13 +3104,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3120,13 +3131,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3147,13 +3158,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3174,13 +3185,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3201,13 +3212,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="D52" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3228,13 +3239,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3255,22 +3266,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>262</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -3282,25 +3293,25 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <v>50</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3309,25 +3320,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3336,25 +3347,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3363,13 +3374,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3381,7 +3392,7 @@
         <v>240</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3390,19 +3401,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59">
         <v>240</v>
@@ -3417,13 +3428,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3444,19 +3455,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61">
         <v>240</v>
@@ -3471,13 +3482,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3498,10 +3509,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
         <v>213</v>
@@ -3525,19 +3536,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>240</v>
@@ -3552,25 +3563,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G65">
         <v>240</v>
       </c>
       <c r="H65">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3579,25 +3590,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G66">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3606,25 +3617,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H67">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3633,13 +3644,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3651,7 +3662,7 @@
         <v>150</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3660,16 +3671,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="E69">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -3678,7 +3689,7 @@
         <v>150</v>
       </c>
       <c r="H69">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3687,16 +3698,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -3705,7 +3716,7 @@
         <v>150</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3714,25 +3725,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="D71" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>150</v>
       </c>
       <c r="H71">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3741,25 +3752,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G72">
         <v>150</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3768,19 +3779,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
         <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73">
         <v>150</v>
@@ -3795,19 +3806,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
         <v>236</v>
       </c>
-      <c r="D74" t="s">
-        <v>233</v>
-      </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G74">
         <v>150</v>
@@ -3822,19 +3833,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G75">
         <v>150</v>
@@ -3849,25 +3860,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="H76">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -3876,25 +3887,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G77">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H77">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -3903,13 +3914,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3921,7 +3932,7 @@
         <v>350</v>
       </c>
       <c r="H78">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3930,25 +3941,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G79">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -3957,25 +3968,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="E80">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="G80">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H80">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -3984,19 +3995,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
-        <v>265</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>121</v>
       </c>
       <c r="E81">
+        <v>-30</v>
+      </c>
+      <c r="F81">
         <v>-5</v>
-      </c>
-      <c r="F81">
-        <v>-10</v>
       </c>
       <c r="G81">
         <v>150</v>
@@ -4011,25 +4022,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="C82" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F82">
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="G82">
         <v>150</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4038,25 +4049,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D83" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G83">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4065,25 +4076,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H84">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4092,25 +4103,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E85">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G85">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4119,19 +4130,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F86">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G86">
         <v>150</v>
@@ -4146,13 +4157,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4173,25 +4184,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H88">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4200,25 +4211,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
         <v>30</v>
       </c>
-      <c r="G89">
-        <v>300</v>
-      </c>
       <c r="H89">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4227,24 +4238,51 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>300</v>
       </c>
       <c r="H90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D91" t="s">
+        <v>87</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91">
+        <v>300</v>
+      </c>
+      <c r="H91">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E81BC1-B403-4285-8D04-5A53164B63A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFB711-090E-43F6-BC9E-585C363952A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="2820" yWindow="1500" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1816,8 +1816,8 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AFB711-090E-43F6-BC9E-585C363952A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE9523-350F-453B-B21F-544B17B3EFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1500" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1816,8 +1816,8 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2123,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2258,7 +2258,7 @@
         <v>60</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2339,7 +2339,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2366,7 +2366,7 @@
         <v>200</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2420,7 +2420,7 @@
         <v>150</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2447,7 +2447,7 @@
         <v>150</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2555,7 +2555,7 @@
         <v>50</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2582,7 +2582,7 @@
         <v>80</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2798,7 +2798,7 @@
         <v>60</v>
       </c>
       <c r="H36">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2852,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="H38">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2906,7 +2906,7 @@
         <v>120</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -3419,7 +3419,7 @@
         <v>240</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3446,7 +3446,7 @@
         <v>240</v>
       </c>
       <c r="H60">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3473,7 +3473,7 @@
         <v>240</v>
       </c>
       <c r="H61">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3500,7 +3500,7 @@
         <v>240</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3527,7 +3527,7 @@
         <v>240</v>
       </c>
       <c r="H63">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3554,7 +3554,7 @@
         <v>240</v>
       </c>
       <c r="H64">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3581,7 +3581,7 @@
         <v>240</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -4121,7 +4121,7 @@
         <v>300</v>
       </c>
       <c r="H85">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4148,7 +4148,7 @@
         <v>150</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE9523-350F-453B-B21F-544B17B3EFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8825882-FF68-4A8F-A228-71F151123E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3060" yWindow="1275" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="276">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1430,6 +1430,51 @@
   </si>
   <si>
     <t>コーヒー風味</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SilverSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀色の甘い</t>
+    <rPh sb="0" eb="2">
+      <t>ギンイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GoldSuger</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金色の甘い</t>
+    <rPh sb="0" eb="2">
+      <t>キンイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀砂糖</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金ピカ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1813,11 +1858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1858,7 +1903,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A91" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A93" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2645,25 +2690,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -2672,25 +2717,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G32">
-        <v>777</v>
+        <v>500</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2699,25 +2744,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -2726,25 +2771,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>150</v>
+        <v>777</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -2753,25 +2798,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>230</v>
       </c>
       <c r="D35" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -2780,25 +2825,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="H36">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2807,25 +2852,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <v>60</v>
       </c>
       <c r="H37">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -2834,25 +2879,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G38">
+        <v>60</v>
+      </c>
+      <c r="H38">
         <v>50</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2861,22 +2906,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2888,25 +2933,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -2915,25 +2960,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>223</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -2942,25 +2987,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G42">
         <v>120</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -2969,25 +3014,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>120</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -2996,13 +3041,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3023,25 +3068,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>120</v>
       </c>
       <c r="H45">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3050,13 +3095,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3077,13 +3122,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3104,13 +3149,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3131,13 +3176,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3158,13 +3203,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3185,13 +3230,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3212,13 +3257,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3239,13 +3284,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3266,13 +3311,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3293,22 +3338,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -3320,25 +3365,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="C56" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3347,25 +3392,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3374,25 +3419,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G58">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3401,25 +3446,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3428,25 +3473,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60">
         <v>240</v>
       </c>
       <c r="H60">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3455,19 +3500,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61">
         <v>240</v>
@@ -3482,19 +3527,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G62">
         <v>240</v>
@@ -3509,19 +3554,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63">
         <v>240</v>
@@ -3536,13 +3581,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3563,25 +3608,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G65">
         <v>240</v>
       </c>
       <c r="H65">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3590,25 +3635,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G66">
         <v>240</v>
       </c>
       <c r="H66">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3617,25 +3662,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G67">
+        <v>240</v>
+      </c>
+      <c r="H67">
         <v>30</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3644,25 +3689,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G68">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H68">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3671,25 +3716,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3698,16 +3743,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="E70">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -3716,7 +3761,7 @@
         <v>150</v>
       </c>
       <c r="H70">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3725,13 +3770,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3752,25 +3797,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G72">
         <v>150</v>
       </c>
       <c r="H72">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3779,19 +3824,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="D73" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73">
         <v>150</v>
@@ -3806,25 +3851,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G74">
         <v>150</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3833,19 +3878,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G75">
         <v>150</v>
@@ -3860,19 +3905,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G76">
         <v>150</v>
@@ -3887,25 +3932,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
         <v>150</v>
       </c>
-      <c r="C77" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" t="s">
-        <v>217</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>20</v>
-      </c>
-      <c r="G77">
-        <v>250</v>
-      </c>
       <c r="H77">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -3914,25 +3959,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -3941,25 +3986,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G79">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H79">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -3968,22 +4013,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G80">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H80">
         <v>10</v>
@@ -3995,25 +4040,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="E81">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="G81">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H81">
-        <v>-10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4022,25 +4067,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="E82">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="G82">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H82">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4049,25 +4094,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F83">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="G83">
         <v>150</v>
       </c>
       <c r="H83">
-        <v>8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4076,25 +4121,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="G84">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4103,13 +4148,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -4118,10 +4163,10 @@
         <v>30</v>
       </c>
       <c r="G85">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H85">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4130,25 +4175,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="E86">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H86">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4157,25 +4202,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>300</v>
+      </c>
+      <c r="H87">
         <v>20</v>
-      </c>
-      <c r="G87">
-        <v>150</v>
-      </c>
-      <c r="H87">
-        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4184,25 +4229,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F88">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G88">
         <v>150</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4211,25 +4256,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4238,25 +4283,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G90">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4265,24 +4310,78 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92">
+        <v>300</v>
+      </c>
+      <c r="H92">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>85</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>86</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>87</v>
       </c>
-      <c r="E91">
+      <c r="E93">
         <v>50</v>
       </c>
-      <c r="F91">
+      <c r="F93">
         <v>100</v>
       </c>
-      <c r="G91">
+      <c r="G93">
         <v>300</v>
       </c>
-      <c r="H91">
+      <c r="H93">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8825882-FF68-4A8F-A228-71F151123E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2604B348-59FB-445F-A0D5-2D55D69DC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1275" windowWidth="24240" windowHeight="13770" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4695" yWindow="2730" windowWidth="21600" windowHeight="12600" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1474,6 +1474,21 @@
     <t>金ピカ</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamLemon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レモンクリーム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レモンホイップ添え</t>
+    <rPh sb="7" eb="8">
+      <t>ソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1858,11 +1873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1903,7 +1918,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A93" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A94" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -3392,25 +3407,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G57">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3419,25 +3434,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <v>50</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3446,25 +3461,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3473,25 +3488,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3500,13 +3515,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3518,7 +3533,7 @@
         <v>240</v>
       </c>
       <c r="H61">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3527,19 +3542,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62">
         <v>240</v>
@@ -3554,13 +3569,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3581,19 +3596,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64">
         <v>240</v>
@@ -3608,13 +3623,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3635,13 +3650,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3662,25 +3677,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>240</v>
       </c>
       <c r="H67">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3689,25 +3704,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G68">
         <v>240</v>
       </c>
       <c r="H68">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3716,25 +3731,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G69">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3743,25 +3758,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3770,13 +3785,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3788,7 +3803,7 @@
         <v>150</v>
       </c>
       <c r="H71">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3797,16 +3812,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="E72">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>10</v>
@@ -3815,7 +3830,7 @@
         <v>150</v>
       </c>
       <c r="H72">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3824,16 +3839,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F73">
         <v>10</v>
@@ -3842,7 +3857,7 @@
         <v>150</v>
       </c>
       <c r="H73">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -3851,25 +3866,25 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>150</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3878,25 +3893,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75">
         <v>150</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3905,19 +3920,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76">
         <v>150</v>
@@ -3932,19 +3947,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G77">
         <v>150</v>
@@ -3959,19 +3974,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G78">
         <v>150</v>
@@ -3986,25 +4001,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
         <v>150</v>
       </c>
-      <c r="C79" t="s">
-        <v>151</v>
-      </c>
-      <c r="D79" t="s">
-        <v>217</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>20</v>
-      </c>
-      <c r="G79">
-        <v>250</v>
-      </c>
       <c r="H79">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4013,25 +4028,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G80">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H80">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4040,13 +4055,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -4058,7 +4073,7 @@
         <v>350</v>
       </c>
       <c r="H81">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4067,25 +4082,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G82">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H82">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4094,25 +4109,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
       <c r="E83">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>-5</v>
+        <v>35</v>
       </c>
       <c r="G83">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H83">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4121,19 +4136,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="E84">
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="F84">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="G84">
         <v>150</v>
@@ -4148,25 +4163,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F85">
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="G85">
         <v>150</v>
       </c>
       <c r="H85">
-        <v>8</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4175,25 +4190,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G86">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4202,25 +4217,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H87">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4229,25 +4244,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="D88" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E88">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G88">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H88">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4256,25 +4271,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F89">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G89">
         <v>150</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4283,13 +4298,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4310,25 +4325,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4337,25 +4352,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
         <v>30</v>
       </c>
-      <c r="G92">
-        <v>300</v>
-      </c>
       <c r="H92">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4364,24 +4379,51 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>300</v>
       </c>
       <c r="H93">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94" t="s">
+        <v>87</v>
+      </c>
+      <c r="E94">
+        <v>50</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>300</v>
+      </c>
+      <c r="H94">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2604B348-59FB-445F-A0D5-2D55D69DC20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52FBD5-3FAD-4542-96BA-E690A87A77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2730" windowWidth="21600" windowHeight="12600" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3705" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1876,8 +1876,8 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2426,7 +2426,7 @@
         <v>200</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2912,7 +2912,7 @@
         <v>60</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -3500,13 +3500,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>120</v>
       </c>
       <c r="H60">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -4100,7 +4100,7 @@
         <v>350</v>
       </c>
       <c r="H82">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52FBD5-3FAD-4542-96BA-E690A87A77B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183FDBD-FEAD-45E4-AD75-1B4F1916533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3870" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4215" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2399,7 +2399,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2426,7 +2426,7 @@
         <v>200</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2588,7 +2588,7 @@
         <v>20</v>
       </c>
       <c r="H26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2615,7 +2615,7 @@
         <v>50</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2642,7 +2642,7 @@
         <v>80</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2669,7 +2669,7 @@
         <v>200</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2696,7 +2696,7 @@
         <v>500</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -2966,7 +2966,7 @@
         <v>50</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -2993,7 +2993,7 @@
         <v>50</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3020,7 +3020,7 @@
         <v>120</v>
       </c>
       <c r="H42">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3452,7 +3452,7 @@
         <v>50</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -4046,7 +4046,7 @@
         <v>250</v>
       </c>
       <c r="H80">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4073,7 +4073,7 @@
         <v>350</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4100,7 +4100,7 @@
         <v>350</v>
       </c>
       <c r="H82">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4127,7 +4127,7 @@
         <v>500</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4208,7 +4208,7 @@
         <v>150</v>
       </c>
       <c r="H86">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4262,7 +4262,7 @@
         <v>300</v>
       </c>
       <c r="H88">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4289,7 +4289,7 @@
         <v>150</v>
       </c>
       <c r="H89">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183FDBD-FEAD-45E4-AD75-1B4F1916533C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E7E90-69F2-48EE-A581-850180606BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView minimized="1" xWindow="3705" yWindow="2415" windowWidth="23565" windowHeight="11580" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="285">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1489,6 +1489,42 @@
     <t>レモンホイップ添え</t>
     <rPh sb="7" eb="8">
       <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Milky</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミルクの味わい</t>
+    <rPh sb="4" eb="5">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミルキー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SugerPowder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>粉砂糖</t>
+    <rPh sb="0" eb="1">
+      <t>コナ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ザトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白い</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1873,11 +1909,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1918,7 +1954,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A94" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A96" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2975,25 +3011,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G41">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3002,25 +3038,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3029,25 +3065,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>120</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -3056,13 +3092,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3074,7 +3110,7 @@
         <v>120</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -3083,25 +3119,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>120</v>
       </c>
       <c r="H45">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3110,13 +3146,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3137,25 +3173,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>120</v>
       </c>
       <c r="H47">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -3164,13 +3200,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3191,13 +3227,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3218,13 +3254,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3245,13 +3281,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3272,13 +3308,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3299,13 +3335,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3326,13 +3362,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3353,13 +3389,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3380,13 +3416,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3407,25 +3443,25 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>277</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G57">
         <v>120</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3434,25 +3470,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>261</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3461,25 +3497,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3488,25 +3524,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G60">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3515,25 +3551,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3542,25 +3578,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
+        <v>30</v>
+      </c>
+      <c r="G62">
+        <v>120</v>
+      </c>
+      <c r="H62">
         <v>10</v>
-      </c>
-      <c r="G62">
-        <v>240</v>
-      </c>
-      <c r="H62">
-        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3569,25 +3605,25 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>240</v>
       </c>
       <c r="H63">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3596,19 +3632,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <v>240</v>
@@ -3623,19 +3659,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>240</v>
@@ -3650,19 +3686,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>240</v>
@@ -3677,13 +3713,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3704,25 +3740,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>240</v>
       </c>
       <c r="H68">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3731,25 +3767,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>240</v>
       </c>
       <c r="H69">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3758,25 +3794,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G70">
+        <v>240</v>
+      </c>
+      <c r="H70">
         <v>30</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3785,25 +3821,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="D71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G71">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3812,25 +3848,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>146</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3839,16 +3875,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="E73">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>10</v>
@@ -3857,7 +3893,7 @@
         <v>150</v>
       </c>
       <c r="H73">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -3866,13 +3902,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3893,25 +3929,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75">
         <v>150</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3920,19 +3956,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>150</v>
@@ -3947,25 +3983,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G77">
         <v>150</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -3974,19 +4010,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G78">
         <v>150</v>
@@ -4001,19 +4037,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G79">
         <v>150</v>
@@ -4028,25 +4064,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" t="s">
+        <v>232</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
         <v>150</v>
       </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" t="s">
-        <v>217</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>20</v>
-      </c>
-      <c r="G80">
-        <v>250</v>
-      </c>
       <c r="H80">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4055,25 +4091,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H81">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4082,25 +4118,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G82">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="H82">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4109,22 +4145,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G83">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="H83">
         <v>6</v>
@@ -4136,25 +4172,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>74</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="E84">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="G84">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="H84">
-        <v>-10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4163,25 +4199,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="E85">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>-10</v>
+        <v>35</v>
       </c>
       <c r="G85">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H85">
-        <v>-10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4190,25 +4226,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F86">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="G86">
         <v>150</v>
       </c>
       <c r="H86">
-        <v>7</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4217,25 +4253,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="D87" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="G87">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4244,13 +4280,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="D88" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4259,10 +4295,10 @@
         <v>30</v>
       </c>
       <c r="G88">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H88">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4271,25 +4307,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="D89" t="s">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="E89">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="G89">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H89">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4298,25 +4334,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G90">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4325,25 +4361,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F91">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G91">
         <v>150</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4352,25 +4388,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H92">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4379,25 +4415,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G93">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H93">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -4406,24 +4442,78 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>30</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>30</v>
+      </c>
+      <c r="G95">
+        <v>300</v>
+      </c>
+      <c r="H95">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>85</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>86</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>87</v>
       </c>
-      <c r="E94">
+      <c r="E96">
         <v>50</v>
       </c>
-      <c r="F94">
+      <c r="F96">
         <v>100</v>
       </c>
-      <c r="G94">
+      <c r="G96">
         <v>300</v>
       </c>
-      <c r="H94">
+      <c r="H96">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\有田翔悟\Documents\Unity\Okashi_Atelier\Assets\Excel_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E7E90-69F2-48EE-A581-850180606BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F224A02-994A-4A4A-9CFC-CED010A6AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3705" yWindow="2415" windowWidth="23565" windowHeight="11580" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3315" yWindow="2235" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="302">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="3"/>
@@ -1525,6 +1525,110 @@
     <t>白い</t>
     <rPh sb="0" eb="1">
       <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Scarletberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スカーレットベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JemNuts</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジェムナッツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宝石の輝き</t>
+    <rPh sb="0" eb="2">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OrangeOfSun</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太陽の実</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太陽の</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MoonApple</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月のりんご</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月の祝福</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュクフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢見クリーム</t>
+    <rPh sb="0" eb="2">
+      <t>ユメミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夢見のホイップ添え</t>
+    <rPh sb="0" eb="2">
+      <t>ユメミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WhipeedCreamDream</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スカーレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rainbowberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>七色ベリー</t>
+    <rPh sb="0" eb="2">
+      <t>ナナイロ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1909,11 +2013,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117D94E9-DB74-4E9B-8C36-2C34A645DC43}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1954,7 +2058,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
-        <f t="shared" ref="A2:A96" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A102" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -2039,25 +2143,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2066,25 +2170,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2093,22 +2197,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -2120,25 +2224,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>15</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2147,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2165,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2174,25 +2278,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>286</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2201,25 +2305,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2228,25 +2332,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2255,25 +2359,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G13">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2282,25 +2386,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2309,13 +2413,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2324,10 +2428,10 @@
         <v>10</v>
       </c>
       <c r="G15">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2336,25 +2440,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2363,25 +2467,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2390,25 +2494,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="E18">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2417,25 +2521,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2444,13 +2548,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2459,10 +2563,10 @@
         <v>20</v>
       </c>
       <c r="G20">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2471,25 +2575,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21">
         <v>5</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2498,22 +2602,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H22">
         <v>5</v>
@@ -2525,25 +2629,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G23">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2552,25 +2656,25 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="E24">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-10</v>
+        <v>50</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="H24">
-        <v>-30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2579,25 +2683,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="E25">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>-30</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H25">
-        <v>-50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2606,25 +2710,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="D26" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
         <v>20</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2633,13 +2737,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2648,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="G27">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2660,25 +2764,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G28">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2687,25 +2791,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F29">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="G29">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2714,25 +2818,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>-30</v>
       </c>
       <c r="G30">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -2741,25 +2845,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G31">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -2768,25 +2872,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2795,25 +2899,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -2822,25 +2926,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>777</v>
+        <v>200</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -2849,13 +2953,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2864,10 +2968,10 @@
         <v>15</v>
       </c>
       <c r="G35">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -2876,25 +2980,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="D36" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G36">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -2903,25 +3007,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -2930,25 +3034,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -2957,25 +3061,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>256</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G39">
-        <v>60</v>
+        <v>777</v>
       </c>
       <c r="H39">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -2984,25 +3088,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G40">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -3011,25 +3115,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>10</v>
       </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
       <c r="G41">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H41">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3038,25 +3142,25 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3065,25 +3169,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="C43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <v>30</v>
       </c>
-      <c r="D43" t="s">
-        <v>224</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>7</v>
-      </c>
       <c r="G43">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -3092,25 +3196,25 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D44" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -3119,25 +3223,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3146,25 +3250,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>281</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>300</v>
+      </c>
+      <c r="H46">
         <v>5</v>
-      </c>
-      <c r="G46">
-        <v>120</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -3173,25 +3277,25 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G47">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -3200,25 +3304,25 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G48">
         <v>120</v>
       </c>
       <c r="H48">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -3227,13 +3331,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3245,7 +3349,7 @@
         <v>120</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3254,25 +3358,25 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>120</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -3281,13 +3385,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3308,25 +3412,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>120</v>
       </c>
       <c r="H52">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -3335,13 +3439,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3362,13 +3466,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3389,13 +3493,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3416,13 +3520,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3443,13 +3547,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3470,13 +3574,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3497,25 +3601,25 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G59">
         <v>120</v>
       </c>
       <c r="H59">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3524,25 +3628,25 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H60">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3551,25 +3655,25 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3578,19 +3682,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G62">
         <v>120</v>
@@ -3605,22 +3709,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H63">
         <v>10</v>
@@ -3632,25 +3736,25 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
+        <v>120</v>
+      </c>
+      <c r="H64">
         <v>10</v>
-      </c>
-      <c r="G64">
-        <v>240</v>
-      </c>
-      <c r="H64">
-        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3659,13 +3763,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="D65" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3674,10 +3778,10 @@
         <v>20</v>
       </c>
       <c r="G65">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="H65">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3686,25 +3790,25 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="H66">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3713,25 +3817,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G67">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="H67">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3740,25 +3844,25 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>120</v>
+      </c>
+      <c r="H68">
         <v>10</v>
-      </c>
-      <c r="G68">
-        <v>240</v>
-      </c>
-      <c r="H68">
-        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3767,13 +3871,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3785,7 +3889,7 @@
         <v>240</v>
       </c>
       <c r="H69">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3794,25 +3898,25 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>240</v>
       </c>
       <c r="H70">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3821,25 +3925,25 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G71">
         <v>240</v>
       </c>
       <c r="H71">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3848,25 +3952,25 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G72">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3875,13 +3979,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3890,10 +3994,10 @@
         <v>10</v>
       </c>
       <c r="G73">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H73">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -3902,13 +4006,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3917,10 +4021,10 @@
         <v>10</v>
       </c>
       <c r="G74">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3929,25 +4033,25 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="E75">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>10</v>
       </c>
       <c r="G75">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3956,25 +4060,25 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="D76" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -3983,25 +4087,25 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -4010,25 +4114,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -4037,25 +4141,25 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G79">
         <v>150</v>
       </c>
       <c r="H79">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4064,19 +4168,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G80">
         <v>150</v>
@@ -4091,25 +4195,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="D81" t="s">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>150</v>
       </c>
       <c r="H81">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4118,25 +4222,25 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
         <v>150</v>
       </c>
-      <c r="C82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D82" t="s">
-        <v>217</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>20</v>
-      </c>
-      <c r="G82">
-        <v>250</v>
-      </c>
       <c r="H82">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4145,25 +4249,25 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G83">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4172,25 +4276,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G84">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H84">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4199,25 +4303,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="D85" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G85">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="H85">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4226,25 +4330,25 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="E86">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="G86">
         <v>150</v>
       </c>
       <c r="H86">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4253,25 +4357,25 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>71</v>
       </c>
       <c r="C87" t="s">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="E87">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="G87">
         <v>150</v>
       </c>
       <c r="H87">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4280,25 +4384,25 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>217</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G88">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4307,25 +4411,25 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="D89" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G89">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4334,25 +4438,25 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G90">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4361,25 +4465,25 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E91">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G91">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="H91">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4388,25 +4492,25 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F92">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="G92">
         <v>150</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4415,25 +4519,25 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F93">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="G93">
         <v>150</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -4442,25 +4546,25 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G94">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="H94">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -4469,25 +4573,25 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H95">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
@@ -4496,24 +4600,186 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>300</v>
       </c>
       <c r="H96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E97">
+        <v>-10</v>
+      </c>
+      <c r="F97">
+        <v>80</v>
+      </c>
+      <c r="G97">
+        <v>150</v>
+      </c>
+      <c r="H97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>150</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" t="s">
+        <v>187</v>
+      </c>
+      <c r="D99" t="s">
+        <v>188</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99">
+        <v>150</v>
+      </c>
+      <c r="H99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>30</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C101" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>30</v>
+      </c>
+      <c r="G101">
+        <v>300</v>
+      </c>
+      <c r="H101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <v>300</v>
+      </c>
+      <c r="H102">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F224A02-994A-4A4A-9CFC-CED010A6AE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E562FF-BE7E-4045-9772-8911EB8E8A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2235" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="4365" yWindow="2685" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1559,16 +1559,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>太陽の実</t>
-    <rPh sb="0" eb="2">
-      <t>タイヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>太陽の</t>
     <rPh sb="0" eb="2">
       <t>タイヨウ</t>
@@ -1629,6 +1619,16 @@
     <t>七色ベリー</t>
     <rPh sb="0" eb="2">
       <t>ナナイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>太陽の香り</t>
+    <rPh sb="0" eb="2">
+      <t>タイヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カオ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1717,9 +1717,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1757,7 +1757,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1863,7 +1863,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2005,7 +2005,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2017,7 +2017,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2146,10 +2146,10 @@
         <v>290</v>
       </c>
       <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" t="s">
         <v>291</v>
-      </c>
-      <c r="D5" t="s">
-        <v>292</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>285</v>
       </c>
       <c r="C10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" t="s">
         <v>286</v>
@@ -2305,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" t="s">
         <v>300</v>
-      </c>
-      <c r="C11" t="s">
-        <v>301</v>
       </c>
       <c r="D11" t="s">
         <v>234</v>
@@ -2656,13 +2656,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
         <v>293</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>294</v>
-      </c>
-      <c r="D24" t="s">
-        <v>295</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s">
+        <v>295</v>
+      </c>
+      <c r="D64" t="s">
         <v>296</v>
-      </c>
-      <c r="D64" t="s">
-        <v>297</v>
       </c>
       <c r="E64">
         <v>0</v>

--- a/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
+++ b/Assets/Excel_Data/Entity_slotNameDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E562FF-BE7E-4045-9772-8911EB8E8A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9860B-3430-4927-83F7-497A449ACCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2685" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
+    <workbookView xWindow="3180" yWindow="1965" windowWidth="23310" windowHeight="12705" xr2:uid="{1DCE2773-8A3B-4011-B3F4-E2EABC03DB8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2016,8 +2016,8 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2098,7 +2098,7 @@
         <v>221</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2107,7 +2107,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -2125,7 +2125,7 @@
         <v>117</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2134,7 +2134,7 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -2152,7 +2152,7 @@
         <v>291</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -2161,7 +2161,7 @@
         <v>250</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -2179,7 +2179,7 @@
         <v>201</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2188,7 +2188,7 @@
         <v>12</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2206,7 +2206,7 @@
         <v>241</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -2215,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2233,7 +2233,7 @@
         <v>240</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -2242,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2260,7 +2260,7 @@
         <v>246</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>12</v>
@@ -2269,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -2287,7 +2287,7 @@
         <v>286</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>80</v>
@@ -2296,7 +2296,7 @@
         <v>500</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -2314,7 +2314,7 @@
         <v>234</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>80</v>
@@ -2323,7 +2323,7 @@
         <v>500</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -2341,7 +2341,7 @@
         <v>243</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -2350,7 +2350,7 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -2368,7 +2368,7 @@
         <v>129</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -2377,7 +2377,7 @@
         <v>1000</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -2395,7 +2395,7 @@
         <v>149</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -2404,7 +2404,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -2422,7 +2422,7 @@
         <v>247</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -2431,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -2449,7 +2449,7 @@
         <v>200</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <v>14</v>
@@ -2458,7 +2458,7 @@
         <v>30</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -2476,7 +2476,7 @@
         <v>208</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -2485,7 +2485,7 @@
         <v>30</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -2503,7 +2503,7 @@
         <v>245</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2512,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2530,7 +2530,7 @@
         <v>202</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -2539,7 +2539,7 @@
         <v>60</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2557,7 +2557,7 @@
         <v>242</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>20</v>
@@ -2566,7 +2566,7 @@
         <v>50</v>
       </c>
       <c r="H20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -2593,7 +2593,7 @@
         <v>50</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2611,7 +2611,7 @@
         <v>244</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -2620,7 +2620,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -2638,7 +2638,7 @@
         <v>249</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -2647,7 +2647,7 @@
         <v>200</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -2665,7 +2665,7 @@
         <v>294</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -2674,7 +2674,7 @@
         <v>250</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -2692,7 +2692,7 @@
         <v>248</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -2719,7 +2719,7 @@
         <v>289</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -2728,7 +2728,7 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -2746,7 +2746,7 @@
         <v>204</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -2755,7 +2755,7 @@
         <v>150</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -2773,7 +2773,7 @@
         <v>205</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -2782,7 +2782,7 @@
         <v>150</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>-30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -2854,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>15</v>
@@ -2863,7 +2863,7 @@
         <v>20</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -2881,7 +2881,7 @@
         <v>43</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -2890,7 +2890,7 @@
         <v>50</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2908,7 +2908,7 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -2917,7 +2917,7 @@
         <v>80</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -2935,7 +2935,7 @@
         <v>18</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>20</v>
@@ -2944,7 +2944,7 @@
         <v>200</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -2962,7 +2962,7 @@
         <v>19</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>15</v>
@@ -2971,7 +2971,7 @@
         <v>500</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -2989,7 +2989,7 @@
         <v>271</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <v>30</v>
@@ -2998,7 +2998,7 @@
         <v>500</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -3016,7 +3016,7 @@
         <v>273</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -3025,7 +3025,7 @@
         <v>500</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -3043,7 +3043,7 @@
         <v>23</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>5</v>
@@ -3052,7 +3052,7 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
@@ -3070,7 +3070,7 @@
         <v>234</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F39">
         <v>100</v>
@@ -3079,7 +3079,7 @@
         <v>777</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
@@ -3097,7 +3097,7 @@
         <v>239</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F40">
         <v>15</v>
@@ -3106,7 +3106,7 @@
         <v>150</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
@@ -3124,7 +3124,7 @@
         <v>233</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>10</v>
@@ -3133,7 +3133,7 @@
         <v>150</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
@@ -3151,7 +3151,7 @@
         <v>222</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>5</v>
@@ -3160,7 +3160,7 @@
         <v>60</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
@@ -3178,7 +3178,7 @@
         <v>253</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <v>30</v>
@@ -3187,7 +3187,7 @@
         <v>60</v>
       </c>
       <c r="H43">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
@@ -3205,7 +3205,7 @@
         <v>257</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F44">
         <v>50</v>
@@ -3214,7 +3214,7 @@
         <v>60</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
@@ -3232,7 +3232,7 @@
         <v>267</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -3241,7 +3241,7 @@
         <v>50</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
@@ -3259,7 +3259,7 @@
         <v>281</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>50</v>
@@ -3268,7 +3268,7 @@
         <v>300</v>
       </c>
       <c r="H46">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
@@ -3286,7 +3286,7 @@
         <v>223</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -3295,7 +3295,7 @@
         <v>50</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
@@ -3313,7 +3313,7 @@
         <v>224</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -3322,7 +3322,7 @@
         <v>120</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
@@ -3340,7 +3340,7 @@
         <v>284</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -3349,7 +3349,7 @@
         <v>120</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3367,7 +3367,7 @@
         <v>34</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>120</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
@@ -3394,7 +3394,7 @@
         <v>92</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -3403,7 +3403,7 @@
         <v>120</v>
       </c>
       <c r="H51">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -3421,7 +3421,7 @@
         <v>168</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -3430,7 +3430,7 @@
         <v>120</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
@@ -3448,7 +3448,7 @@
         <v>62</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -3457,7 +3457,7 @@
         <v>120</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
@@ -3475,7 +3475,7 @@
         <v>70</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -3484,7 +3484,7 @@
         <v>120</v>
       </c>
       <c r="H54">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
@@ -3502,7 +3502,7 @@
         <v>65</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -3511,7 +3511,7 @@
         <v>120</v>
       </c>
       <c r="H55">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3529,7 +3529,7 @@
         <v>147</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -3538,7 +3538,7 @@
         <v>120</v>
       </c>
       <c r="H56">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3556,7 +3556,7 @@
         <v>160</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -3565,7 +3565,7 @@
         <v>120</v>
       </c>
       <c r="H57">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
@@ -3583,7 +3583,7 @@
         <v>164</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>5</v>
@@ -3592,7 +3592,7 @@
         <v>120</v>
       </c>
       <c r="H58">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
@@ -3610,7 +3610,7 @@
         <v>166</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F59">
         <v>5</v>
@@ -3619,7 +3619,7 @@
         <v>120</v>
       </c>
       <c r="H59">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -3637,7 +3637,7 @@
         <v>68</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>5</v>
@@ -3646,7 +3646,7 @@
         <v>120</v>
       </c>
       <c r="H60">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -3664,7 +3664,7 @@
         <v>190</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>5</v>
@@ -3673,7 +3673,7 @@
         <v>120</v>
       </c>
       <c r="H61">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
@@ -3691,7 +3691,7 @@
         <v>148</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <v>5</v>
@@ -3700,7 +3700,7 @@
         <v>120</v>
       </c>
       <c r="H62">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
@@ -3718,7 +3718,7 @@
         <v>263</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>5</v>
@@ -3727,7 +3727,7 @@
         <v>120</v>
       </c>
       <c r="H63">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
@@ -3745,7 +3745,7 @@
         <v>296</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -3754,7 +3754,7 @@
         <v>120</v>
       </c>
       <c r="H64">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
@@ -3772,7 +3772,7 @@
         <v>278</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>20</v>
@@ -3781,7 +3781,7 @@
         <v>120</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
@@ -3799,7 +3799,7 @@
         <v>79</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -3808,7 +3808,7 @@
         <v>50</v>
       </c>
       <c r="H66">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -3826,7 +3826,7 @@
         <v>225</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F67">
         <v>7</v>
@@ -3835,7 +3835,7 @@
         <v>50</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -3853,7 +3853,7 @@
         <v>209</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F68">
         <v>30</v>
@@ -3862,7 +3862,7 @@
         <v>120</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3880,7 +3880,7 @@
         <v>80</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -3889,7 +3889,7 @@
         <v>240</v>
       </c>
       <c r="H69">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
@@ -3907,7 +3907,7 @@
         <v>179</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F70">
         <v>10</v>
@@ -3916,7 +3916,7 @@
         <v>240</v>
       </c>
       <c r="H70">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
@@ -3934,7 +3934,7 @@
         <v>180</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F71">
         <v>20</v>
@@ -3943,7 +3943,7 @@
         <v>240</v>
       </c>
       <c r="H71">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
@@ -3961,7 +3961,7 @@
         <v>181</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F72">
         <v>20</v>
@@ -3970,7 +3970,7 @@
         <v>240</v>
       </c>
       <c r="H72">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
@@ -3988,7 +3988,7 @@
         <v>182</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F73">
         <v>10</v>
@@ -3997,7 +3997,7 @@
         <v>240</v>
       </c>
       <c r="H73">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
@@ -4015,7 +4015,7 @@
         <v>213</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F74">
         <v>10</v>
@@ -4024,7 +4024,7 @@
         <v>240</v>
       </c>
       <c r="H74">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -4042,7 +4042,7 @@
         <v>212</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -4051,7 +4051,7 @@
         <v>240</v>
       </c>
       <c r="H75">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -4069,7 +4069,7 @@
         <v>259</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F76">
         <v>12</v>
@@ -4078,7 +4078,7 @@
         <v>240</v>
       </c>
       <c r="H76">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
@@ -4096,7 +4096,7 @@
         <v>211</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F77">
         <v>30</v>
@@ -4105,7 +4105,7 @@
         <v>240</v>
       </c>
       <c r="H77">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
@@ -4123,7 +4123,7 @@
         <v>44</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78">
         <v>5</v>
@@ -4132,7 +4132,7 @@
         <v>30</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
@@ -4150,7 +4150,7 @@
         <v>214</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -4159,7 +4159,7 @@
         <v>150</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
@@ -4177,7 +4177,7 @@
         <v>226</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -4186,7 +4186,7 @@
         <v>150</v>
       </c>
       <c r="H80">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
@@ -4204,7 +4204,7 @@
         <v>89</v>
       </c>
       <c r="E81">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -4213,7 +4213,7 @@
         <v>150</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
@@ -4231,7 +4231,7 @@
         <v>46</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -4240,7 +4240,7 @@
         <v>150</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -4258,7 +4258,7 @@
         <v>231</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F83">
         <v>12</v>
@@ -4267,7 +4267,7 @@
         <v>150</v>
       </c>
       <c r="H83">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
@@ -4285,7 +4285,7 @@
         <v>254</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F84">
         <v>14</v>
@@ -4294,7 +4294,7 @@
         <v>150</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
@@ -4312,7 +4312,7 @@
         <v>236</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F85">
         <v>15</v>
@@ -4321,7 +4321,7 @@
         <v>150</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
@@ -4339,7 +4339,7 @@
         <v>232</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <v>6</v>
@@ -4348,7 +4348,7 @@
         <v>150</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
@@ -4366,7 +4366,7 @@
         <v>216</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F87">
         <v>5</v>
@@ -4375,7 +4375,7 @@
         <v>150</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
@@ -4393,7 +4393,7 @@
         <v>217</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F88">
         <v>20</v>
@@ -4402,7 +4402,7 @@
         <v>250</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
@@ -4420,7 +4420,7 @@
         <v>227</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F89">
         <v>25</v>
@@ -4429,7 +4429,7 @@
         <v>350</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
@@ -4447,7 +4447,7 @@
         <v>228</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F90">
         <v>25</v>
@@ -4456,7 +4456,7 @@
         <v>350</v>
       </c>
       <c r="H90">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
@@ -4474,7 +4474,7 @@
         <v>218</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F91">
         <v>35</v>
@@ -4483,7 +4483,7 @@
         <v>500</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
@@ -4501,7 +4501,7 @@
         <v>121</v>
       </c>
       <c r="E92">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="F92">
         <v>-5</v>
@@ -4510,7 +4510,7 @@
         <v>150</v>
       </c>
       <c r="H92">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
@@ -4528,7 +4528,7 @@
         <v>266</v>
       </c>
       <c r="E93">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="F93">
         <v>-10</v>
@@ -4537,7 +4537,7 @@
         <v>150</v>
       </c>
       <c r="H93">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
@@ -4555,7 +4555,7 @@
         <v>142</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F94">
         <v>30</v>
@@ -4564,7 +4564,7 @@
         <v>150</v>
       </c>
       <c r="H94">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
@@ -4582,7 +4582,7 @@
         <v>78</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <v>5</v>
@@ -4591,7 +4591,7 @@
         <v>100</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
@@ -4609,7 +4609,7 @@
         <v>229</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F96">
         <v>30</v>
@@ -4618,7 +4618,7 @@
         <v>300</v>
       </c>
       <c r="H96">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -4645,7 +4645,7 @@
         <v>150</v>
       </c>
       <c r="H97">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -4663,7 +4663,7 @@
         <v>185</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98">
         <v>20</v>
@@ -4672,7 +4672,7 @@
         <v>150</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
@@ -4690,7 +4690,7 @@
         <v>188</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F99">
         <v>20</v>
@@ -4699,7 +4699,7 @@
         <v>150</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
@@ -4717,7 +4717,7 @@
         <v>91</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -4726,7 +4726,7 @@
         <v>30</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4744,7 +4744,7 @@
         <v>84</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F101">
         <v>30</v>
@@ -4753,7 +4753,7 @@
         <v>300</v>
       </c>
       <c r="H101">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
@@ -4771,7 +4771,7 @@
         <v>87</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F102">
         <v>100</v>
@@ -4780,7 +4780,7 @@
         <v>300</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
